--- a/Output/export_kpis.xlsx
+++ b/Output/export_kpis.xlsx
@@ -268,7 +268,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>44715.48979581019</v>
+        <v>44715.54143104167</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -326,22 +326,22 @@
         <v>0.0</v>
       </c>
       <c r="T2" t="n">
-        <v>15.454241825954329</v>
+        <v>16.592177558161886</v>
       </c>
       <c r="U2" t="n">
-        <v>0.829404173501848</v>
+        <v>0.739408956016037</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5238904142052863</v>
+        <v>0.6396518258887574</v>
       </c>
       <c r="W2" t="n">
-        <v>7400.0</v>
+        <v>6800.0</v>
       </c>
       <c r="X2" t="n">
-        <v>17.08</v>
+        <v>317.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>58.26160002134016</v>
+        <v>55.15491297789812</v>
       </c>
       <c r="Z2" t="n">
         <v>0.0</v>
@@ -413,7 +413,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>44715.489796041664</v>
+        <v>44715.541431261576</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -471,22 +471,22 @@
         <v>0.0</v>
       </c>
       <c r="T3" t="n">
-        <v>16.98719153396851</v>
+        <v>17.36224718755243</v>
       </c>
       <c r="U3" t="n">
-        <v>1.016300061609272</v>
+        <v>1.2207691706471688</v>
       </c>
       <c r="V3" t="n">
-        <v>0.171536707002433</v>
+        <v>0.26595531990458554</v>
       </c>
       <c r="W3" t="n">
-        <v>9200.0</v>
+        <v>8200.0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.96</v>
+        <v>296.77</v>
       </c>
       <c r="Y3" t="n">
-        <v>92.99548739041978</v>
+        <v>86.17726211857631</v>
       </c>
       <c r="Z3" t="n">
         <v>0.0</v>
@@ -558,7 +558,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>44715.48979612268</v>
+        <v>44715.54143131944</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -616,19 +616,19 @@
         <v>87.5</v>
       </c>
       <c r="T4" t="n">
-        <v>22.586786230566926</v>
+        <v>25.622597085337024</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8249901178095191</v>
+        <v>1.818451052098019</v>
       </c>
       <c r="V4" t="n">
         <v>-0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>5400.0</v>
+        <v>5800.0</v>
       </c>
       <c r="X4" t="n">
-        <v>9.73</v>
+        <v>198.71</v>
       </c>
       <c r="Y4" t="n">
         <v>100.0</v>
@@ -703,7 +703,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>44715.48979620371</v>
+        <v>44715.54143143519</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -761,19 +761,19 @@
         <v>85.0</v>
       </c>
       <c r="T5" t="n">
-        <v>33.17347389292574</v>
+        <v>35.72940059895572</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2012740486917943</v>
+        <v>3.272610974059578</v>
       </c>
       <c r="V5" t="n">
         <v>-0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>6700.0</v>
+        <v>7200.0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.11</v>
+        <v>111.04</v>
       </c>
       <c r="Y5" t="n">
         <v>100.0</v>
@@ -848,7 +848,7 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>44715.48979623843</v>
+        <v>44715.54143145833</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1000,13 +1000,13 @@
         <v>69.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>177.25784628770575</v>
+        <v>155.65267225175722</v>
       </c>
       <c r="AI6" t="n">
-        <v>64.37729369235434</v>
+        <v>47.16187409387012</v>
       </c>
       <c r="AJ6" t="n">
-        <v>58.94017944664275</v>
+        <v>58.15151520670435</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>44715.48979629629</v>
+        <v>44715.54143152778</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1207,10 +1207,960 @@
         </is>
       </c>
       <c r="AL7" t="n">
-        <v>2.6439206951031236</v>
+        <v>46.211079155152746</v>
       </c>
       <c r="AM7" t="n">
-        <v>3613.309218325836</v>
+        <v>47743.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>44715.54306967593</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>rijtjeshuizen (laag)</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>16.045884873030943</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.6845742062270038</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.6396518258887574</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6600.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>330.6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>51.92390300909424</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-2.5859575815597293</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>4.05959872840634</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-5.858063759612174</v>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>44715.54306986111</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VVD-wijk (laag)</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>14.14452876034304</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.6191124122990689</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.2739653785483065</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7700.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>341.2</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>77.4444014570355</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-5.9241459786379025</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>14.969228292534202</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-10.13360188854081</v>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>44715.54306991898</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>rijtjeshuizen (hoog)</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>21.038341721770006</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.8699073342047108</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5300.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>270.74</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-8.322974863051812</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>36.24300935079269</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>44715.543069976855</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VVD-wijk (hoog)</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>24.82182455346574</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.5075240486917962</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5900.0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>263.56</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-17.423517264573913</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>137.35122953144509</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>44715.543070011576</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AF12" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>137.83915743061382</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>30.55314281402029</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>51.20810434587503</v>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>44715.54307006944</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AL13" t="n">
+        <v>60.30465406439814</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>40439.0</v>
       </c>
     </row>
   </sheetData>

--- a/Output/export_kpis.xlsx
+++ b/Output/export_kpis.xlsx
@@ -268,7 +268,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>44715.48979581019</v>
+        <v>44715.57863613426</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -326,22 +326,22 @@
         <v>0.0</v>
       </c>
       <c r="T2" t="n">
-        <v>15.454241825954329</v>
+        <v>16.3481348028805</v>
       </c>
       <c r="U2" t="n">
-        <v>0.829404173501848</v>
+        <v>0.8294041735018478</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5238904142052863</v>
+        <v>0.6396518258887574</v>
       </c>
       <c r="W2" t="n">
-        <v>7400.0</v>
+        <v>6700.0</v>
       </c>
       <c r="X2" t="n">
-        <v>17.08</v>
+        <v>214.71</v>
       </c>
       <c r="Y2" t="n">
-        <v>58.26160002134016</v>
+        <v>53.91804380215612</v>
       </c>
       <c r="Z2" t="n">
         <v>0.0</v>
@@ -413,7 +413,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>44715.489796041664</v>
+        <v>44715.578636342594</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -471,22 +471,22 @@
         <v>0.0</v>
       </c>
       <c r="T3" t="n">
-        <v>16.98719153396851</v>
+        <v>15.653157735820223</v>
       </c>
       <c r="U3" t="n">
-        <v>1.016300061609272</v>
+        <v>1.150769170647169</v>
       </c>
       <c r="V3" t="n">
-        <v>0.171536707002433</v>
+        <v>0.2739653785483065</v>
       </c>
       <c r="W3" t="n">
-        <v>9200.0</v>
+        <v>7900.0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.96</v>
+        <v>221.71</v>
       </c>
       <c r="Y3" t="n">
-        <v>92.99548739041978</v>
+        <v>81.8781765121124</v>
       </c>
       <c r="Z3" t="n">
         <v>0.0</v>
@@ -558,7 +558,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>44715.48979612268</v>
+        <v>44715.57863640046</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -616,19 +616,19 @@
         <v>87.5</v>
       </c>
       <c r="T4" t="n">
-        <v>22.586786230566926</v>
+        <v>23.39216620388452</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8249901178095191</v>
+        <v>1.607201052098019</v>
       </c>
       <c r="V4" t="n">
         <v>-0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>5400.0</v>
+        <v>5600.0</v>
       </c>
       <c r="X4" t="n">
-        <v>9.73</v>
+        <v>131.3</v>
       </c>
       <c r="Y4" t="n">
         <v>100.0</v>
@@ -703,7 +703,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>44715.48979620371</v>
+        <v>44715.57863646991</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -761,19 +761,19 @@
         <v>85.0</v>
       </c>
       <c r="T5" t="n">
-        <v>33.17347389292574</v>
+        <v>30.032700517876982</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2012740486917943</v>
+        <v>2.956545957017598</v>
       </c>
       <c r="V5" t="n">
         <v>-0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>6700.0</v>
+        <v>6600.0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.11</v>
+        <v>94.18</v>
       </c>
       <c r="Y5" t="n">
         <v>100.0</v>
@@ -848,7 +848,7 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>44715.48979623843</v>
+        <v>44715.57863649305</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1000,13 +1000,13 @@
         <v>69.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>177.25784628770575</v>
+        <v>147.13026571798542</v>
       </c>
       <c r="AI6" t="n">
-        <v>64.37729369235434</v>
+        <v>40.59442340173604</v>
       </c>
       <c r="AJ6" t="n">
-        <v>58.94017944664275</v>
+        <v>57.28768982389991</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>44715.48979629629</v>
+        <v>44715.578636516206</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1207,10 +1207,960 @@
         </is>
       </c>
       <c r="AL7" t="n">
-        <v>2.6439206951031236</v>
+        <v>33.0949220463136</v>
       </c>
       <c r="AM7" t="n">
-        <v>3613.309218325836</v>
+        <v>44032.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>44715.58029042824</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>rijtjeshuizen (laag)</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>16.3481348028805</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.8294041735018478</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.6396518258887574</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6700.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>214.71</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>53.91804380215612</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.09904138006205263</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-5.016326660606007E-4</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>44715.58029063657</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VVD-wijk (laag)</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>15.653157735820223</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.150769170647169</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.2739653785483065</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7900.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>221.71</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>81.8781765121124</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.39611086602817985</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.0020463473673181807</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>44715.580290694445</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>rijtjeshuizen (hoog)</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>42.5531914893617</v>
+      </c>
+      <c r="I10" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>23.39216620388452</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.607201052098019</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5600.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.17531039169365872</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.009039148214032521</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>44715.58029074074</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VVD-wijk (hoog)</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>30.032700517876982</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.956545957017598</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6600.0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>94.18</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.7120066804492732</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.0027013259258631857</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>44715.580290763886</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AF12" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>147.13026571798542</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>40.59442340173604</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>57.28768982389991</v>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>44715.58029078704</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AL13" t="n">
+        <v>33.0949220463136</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>44032.0</v>
       </c>
     </row>
   </sheetData>

--- a/Output/export_kpis.xlsx
+++ b/Output/export_kpis.xlsx
@@ -54338,6 +54338,4056 @@
         <v>-99.0</v>
       </c>
     </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B241" s="3" t="n">
+        <v>44718.40217961805</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G241" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H241" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I241" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L241" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M241" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P241" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R241" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S241" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T241" t="n">
+        <v>31.51058143010344</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2.2790254442345246</v>
+      </c>
+      <c r="V241" t="n">
+        <v>0.30811867476361215</v>
+      </c>
+      <c r="W241" t="n">
+        <v>4600.0</v>
+      </c>
+      <c r="X241" t="n">
+        <v>100.36</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>89.52505606516209</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>0.3812610803039285</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>-0.0033176074022353056</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>7442.0</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB241" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B242" s="3" t="n">
+        <v>44718.40217971065</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G242" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H242" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I242" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J242" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R242" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S242" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T242" t="n">
+        <v>26.133646092028112</v>
+      </c>
+      <c r="U242" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V242" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W242" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="X242" t="n">
+        <v>93.59</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>0.023502001271626796</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>-0.007082598081379105</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>23128.0</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AG242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB242" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B243" s="3" t="n">
+        <v>44718.40217974537</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G243" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H243" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L243" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M243" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O243" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P243" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T243" t="n">
+        <v>33.28879656414257</v>
+      </c>
+      <c r="U243" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V243" t="n">
+        <v>1.4080182048259688</v>
+      </c>
+      <c r="W243" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X243" t="n">
+        <v>103.57</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>44.534772363203224</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>0.3405000476924903</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>-0.015667995459482307</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>6628.0</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB243" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B244" s="3" t="n">
+        <v>44718.402179756944</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G244" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H244" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I244" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J244" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P244" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R244" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S244" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T244" t="n">
+        <v>25.881289317286715</v>
+      </c>
+      <c r="U244" t="n">
+        <v>1.568577424483491</v>
+      </c>
+      <c r="V244" t="n">
+        <v>1.1707929012809182</v>
+      </c>
+      <c r="W244" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X244" t="n">
+        <v>132.13</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>51.38090396391826</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>-0.09813596746666749</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>0.0011189229310391018</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>6138.0</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B245" s="3" t="n">
+        <v>44718.40217976852</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG245" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH245" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI245" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ245" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL245" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>124.36667782542435</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>28.74333868811022</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>57.4904824528083</v>
+      </c>
+      <c r="AR245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS245" t="n">
+        <v>2908877.0</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="AV245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB245" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B246" s="3" t="n">
+        <v>44718.402179780096</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV246" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW246" t="n">
+        <v>28.642806306700273</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>48062.0</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>99.15953196347031</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>10834.09526986352</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>118.33881566831127</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B247" s="3" t="n">
+        <v>44718.44841030092</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G247" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I247" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L247" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M247" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P247" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R247" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S247" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T247" t="n">
+        <v>31.51058143010344</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2.2790254442345246</v>
+      </c>
+      <c r="V247" t="n">
+        <v>0.30811867476361215</v>
+      </c>
+      <c r="W247" t="n">
+        <v>4600.0</v>
+      </c>
+      <c r="X247" t="n">
+        <v>100.36</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>89.52505606516209</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>0.3812610803039285</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>-0.0033176074022353056</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>7442.0</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB247" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B248" s="3" t="n">
+        <v>44718.44841039352</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G248" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H248" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I248" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J248" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P248" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R248" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S248" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T248" t="n">
+        <v>26.133646092028112</v>
+      </c>
+      <c r="U248" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V248" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W248" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="X248" t="n">
+        <v>93.59</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>0.023502001271626796</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>-0.007082598081379105</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>23128.0</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AG248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB248" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B249" s="3" t="n">
+        <v>44718.44841041667</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G249" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H249" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L249" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M249" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P249" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R249" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S249" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T249" t="n">
+        <v>33.28879656414257</v>
+      </c>
+      <c r="U249" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V249" t="n">
+        <v>1.4080182048259688</v>
+      </c>
+      <c r="W249" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X249" t="n">
+        <v>103.57</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>44.534772363203224</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>0.3405000476924903</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>-0.015667995459482307</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>6628.0</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB249" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B250" s="3" t="n">
+        <v>44718.448410439814</v>
+      </c>
+      <c r="C250" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G250" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H250" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I250" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J250" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P250" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R250" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S250" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T250" t="n">
+        <v>25.881289317286715</v>
+      </c>
+      <c r="U250" t="n">
+        <v>1.568577424483491</v>
+      </c>
+      <c r="V250" t="n">
+        <v>1.1707929012809182</v>
+      </c>
+      <c r="W250" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X250" t="n">
+        <v>132.13</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>51.38090396391826</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>-0.09813596746666749</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>0.0011189229310391018</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>6138.0</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB250" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B251" s="3" t="n">
+        <v>44718.44841045139</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG251" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH251" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI251" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ251" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL251" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>124.36667782542435</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>28.74333868811022</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>57.4904824528083</v>
+      </c>
+      <c r="AR251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS251" t="n">
+        <v>2908877.0</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="AV251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB251" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B252" s="3" t="n">
+        <v>44718.44841045139</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU252" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV252" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW252" t="n">
+        <v>28.642806306700273</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>48062.0</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>99.15953196347031</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>10834.09526986352</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>118.33881566831127</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B253" s="3" t="n">
+        <v>44718.44965243056</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G253" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H253" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I253" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L253" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M253" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P253" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R253" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S253" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T253" t="n">
+        <v>31.086124988866338</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.418321993450145</v>
+      </c>
+      <c r="V253" t="n">
+        <v>0.30811867476361215</v>
+      </c>
+      <c r="W253" t="n">
+        <v>4600.0</v>
+      </c>
+      <c r="X253" t="n">
+        <v>99.56</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>89.98935841644946</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>-0.43196161957360385</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>-0.7991046366915874</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>0.5186283837112857</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>7458.0</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B254" s="3" t="n">
+        <v>44718.44965252315</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G254" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H254" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I254" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J254" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O254" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S254" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T254" t="n">
+        <v>26.131690441894573</v>
+      </c>
+      <c r="U254" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V254" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W254" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="X254" t="n">
+        <v>93.57</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>-0.022359466413545307</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>-0.027937248421907354</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>23127.0</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AG254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB254" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B255" s="3" t="n">
+        <v>44718.4496525463</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G255" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H255" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L255" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M255" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O255" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P255" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R255" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S255" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T255" t="n">
+        <v>33.28879656414257</v>
+      </c>
+      <c r="U255" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V255" t="n">
+        <v>1.4080182048259688</v>
+      </c>
+      <c r="W255" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X255" t="n">
+        <v>103.57</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>44.534772363203224</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>0.3405000476924903</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>-0.015667995459482307</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>6628.0</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B256" s="3" t="n">
+        <v>44718.44965256944</v>
+      </c>
+      <c r="C256" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G256" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H256" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I256" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J256" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P256" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R256" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S256" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T256" t="n">
+        <v>26.138305274064642</v>
+      </c>
+      <c r="U256" t="n">
+        <v>2.1262842500947854</v>
+      </c>
+      <c r="V256" t="n">
+        <v>1.1856447013973996</v>
+      </c>
+      <c r="W256" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X256" t="n">
+        <v>131.83</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>50.284208353620926</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>-0.3810659255146102</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>-0.22890985554472046</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>-2.1344420313575547</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>6256.0</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AG256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB256" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B257" s="3" t="n">
+        <v>44718.44965258102</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG257" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH257" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI257" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ257" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL257" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>122.33315001409387</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>24.62804998445347</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>50.143369478097746</v>
+      </c>
+      <c r="AR257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS257" t="n">
+        <v>2924322.0</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>374.0</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AV257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB257" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B258" s="3" t="n">
+        <v>44718.44965259259</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU258" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV258" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW258" t="n">
+        <v>28.567999101867443</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>47883.0</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>99.14240867579909</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>10867.243365579092</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>118.22433080047746</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Output/export_kpis.xlsx
+++ b/Output/export_kpis.xlsx
@@ -58388,6 +58388,6756 @@
         <v>-99.0</v>
       </c>
     </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B259" s="3" t="n">
+        <v>44718.46595722222</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G259" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H259" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I259" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L259" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M259" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O259" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P259" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R259" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S259" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T259" t="n">
+        <v>31.51058143010344</v>
+      </c>
+      <c r="U259" t="n">
+        <v>2.2790254442345246</v>
+      </c>
+      <c r="V259" t="n">
+        <v>0.30811867476361215</v>
+      </c>
+      <c r="W259" t="n">
+        <v>4600.0</v>
+      </c>
+      <c r="X259" t="n">
+        <v>100.36</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>89.52505606516209</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>0.3812610803039285</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>0.8001912908910372</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>-0.5159525075606063</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>7442.0</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB259" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B260" s="3" t="n">
+        <v>44718.46595731482</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G260" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H260" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I260" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J260" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P260" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R260" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S260" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T260" t="n">
+        <v>26.133646092028112</v>
+      </c>
+      <c r="U260" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V260" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W260" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="X260" t="n">
+        <v>93.59</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>0.023502001271626796</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>0.014290260185569408</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>23128.0</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AG260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB260" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B261" s="3" t="n">
+        <v>44718.46595732639</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G261" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H261" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L261" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M261" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P261" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R261" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S261" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T261" t="n">
+        <v>33.28879656414257</v>
+      </c>
+      <c r="U261" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V261" t="n">
+        <v>1.4080182048259688</v>
+      </c>
+      <c r="W261" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X261" t="n">
+        <v>103.57</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>44.534772363203224</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>0.3405000476924903</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>-0.015667995459482307</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>6628.0</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB261" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B262" s="3" t="n">
+        <v>44718.46595734954</v>
+      </c>
+      <c r="C262" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G262" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H262" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I262" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J262" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O262" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P262" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R262" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S262" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T262" t="n">
+        <v>25.881289317286715</v>
+      </c>
+      <c r="U262" t="n">
+        <v>1.568577424483491</v>
+      </c>
+      <c r="V262" t="n">
+        <v>1.1707929012809182</v>
+      </c>
+      <c r="W262" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X262" t="n">
+        <v>132.13</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>51.38090396391826</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>-0.09813596746666749</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>0.22868727366212696</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>2.180994085826866</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>6138.0</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B263" s="3" t="n">
+        <v>44718.46595736111</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG263" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH263" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI263" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ263" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL263" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>124.36667782542435</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>28.74333868811022</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>26.473704384856124</v>
+      </c>
+      <c r="AR263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS263" t="n">
+        <v>2908877.0</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AV263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB263" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B264" s="3" t="n">
+        <v>44718.46595737268</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU264" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV264" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW264" t="n">
+        <v>28.642806306700273</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>48062.0</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>99.15953196347031</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>10834.09526986352</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>118.33881566831127</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B265" s="3" t="n">
+        <v>44718.488968784724</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G265" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H265" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I265" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L265" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M265" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O265" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P265" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R265" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S265" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T265" t="n">
+        <v>31.509164042852316</v>
+      </c>
+      <c r="U265" t="n">
+        <v>2.2790254442345246</v>
+      </c>
+      <c r="V265" t="n">
+        <v>0.30811867476361215</v>
+      </c>
+      <c r="W265" t="n">
+        <v>4600.0</v>
+      </c>
+      <c r="X265" t="n">
+        <v>100.35</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>89.52505606516218</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>0.37882120277264103</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>-0.006383420475155888</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>9.524163629582157E-14</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>7442.0</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB265" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B266" s="3" t="n">
+        <v>44718.48896888889</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G266" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H266" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I266" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J266" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R266" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S266" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T266" t="n">
+        <v>26.133646092028112</v>
+      </c>
+      <c r="U266" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V266" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W266" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="X266" t="n">
+        <v>93.59</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>0.023502001271626796</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>-0.007082598081379105</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>23128.0</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AG266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB266" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B267" s="3" t="n">
+        <v>44718.48896891204</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G267" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H267" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L267" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M267" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O267" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P267" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R267" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S267" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T267" t="n">
+        <v>33.28879656414257</v>
+      </c>
+      <c r="U267" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V267" t="n">
+        <v>1.4080182048259688</v>
+      </c>
+      <c r="W267" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X267" t="n">
+        <v>103.57</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>44.534772363203224</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>0.3405000476924903</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>-0.015667995459482307</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>6628.0</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB267" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B268" s="3" t="n">
+        <v>44718.488968935184</v>
+      </c>
+      <c r="C268" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G268" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H268" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I268" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J268" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O268" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P268" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R268" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S268" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T268" t="n">
+        <v>25.88061867432561</v>
+      </c>
+      <c r="U268" t="n">
+        <v>1.568577424483491</v>
+      </c>
+      <c r="V268" t="n">
+        <v>1.1707929012809182</v>
+      </c>
+      <c r="W268" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X268" t="n">
+        <v>132.13</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>51.383820652464216</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>-0.0975314129575256</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>0.0017518791105456677</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>0.005676600294940414</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>6138.0</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB268" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B269" s="3" t="n">
+        <v>44718.488968958336</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG269" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH269" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI269" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ269" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL269" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>124.36402487799286</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>28.744991322146063</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>26.476950428564372</v>
+      </c>
+      <c r="AR269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS269" t="n">
+        <v>97098.0</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AV269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB269" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B270" s="3" t="n">
+        <v>44718.488968958336</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU270" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV270" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW270" t="n">
+        <v>28.64265693836694</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>48061.0</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>99.16024543378995</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>10834.087200481748</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>118.33869595968032</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B271" s="3" t="n">
+        <v>44718.49042724537</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G271" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H271" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I271" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L271" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M271" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P271" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R271" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S271" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T271" t="n">
+        <v>31.51058143010344</v>
+      </c>
+      <c r="U271" t="n">
+        <v>2.2790254442345246</v>
+      </c>
+      <c r="V271" t="n">
+        <v>0.30811867476361215</v>
+      </c>
+      <c r="W271" t="n">
+        <v>4600.0</v>
+      </c>
+      <c r="X271" t="n">
+        <v>100.36</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>89.52505606516209</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>0.3812610803039285</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>0.006647184066882558</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>-9.524163629582148E-14</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>7442.0</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B272" s="3" t="n">
+        <v>44718.490427337965</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G272" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H272" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I272" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J272" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P272" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R272" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S272" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T272" t="n">
+        <v>26.133646092028112</v>
+      </c>
+      <c r="U272" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V272" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W272" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="X272" t="n">
+        <v>93.59</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>0.023502001271626796</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>-0.007082598081379105</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>23128.0</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AG272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB272" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B273" s="3" t="n">
+        <v>44718.49042736111</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G273" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H273" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L273" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M273" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O273" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P273" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R273" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S273" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T273" t="n">
+        <v>33.28879656414257</v>
+      </c>
+      <c r="U273" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V273" t="n">
+        <v>1.4080182048259688</v>
+      </c>
+      <c r="W273" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X273" t="n">
+        <v>103.57</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>44.534772363203224</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>0.3405000476924903</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>-0.015667995459482307</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>6628.0</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB273" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B274" s="3" t="n">
+        <v>44718.490427372686</v>
+      </c>
+      <c r="C274" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G274" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H274" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I274" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J274" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O274" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P274" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R274" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S274" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T274" t="n">
+        <v>25.881289317286715</v>
+      </c>
+      <c r="U274" t="n">
+        <v>1.568577424483491</v>
+      </c>
+      <c r="V274" t="n">
+        <v>1.1707929012809182</v>
+      </c>
+      <c r="W274" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X274" t="n">
+        <v>132.13</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>51.38090396391826</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>-0.09813596746666749</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>0.0011189229310391018</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>-0.005676278075322448</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>6138.0</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB274" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B275" s="3" t="n">
+        <v>44718.49042738426</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG275" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH275" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI275" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ275" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL275" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>124.36667782542435</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>28.74333868811022</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>26.408129501306636</v>
+      </c>
+      <c r="AR275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS275" t="n">
+        <v>97098.0</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AV275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB275" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B276" s="3" t="n">
+        <v>44718.49042738426</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU276" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV276" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW276" t="n">
+        <v>28.642806306700273</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>48062.0</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>99.15953196347031</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>10834.09526986352</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>118.33881566831127</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B277" s="3" t="n">
+        <v>44718.49124142361</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G277" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H277" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I277" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L277" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M277" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O277" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P277" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R277" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S277" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T277" t="n">
+        <v>31.51058143010344</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2.2790254442345246</v>
+      </c>
+      <c r="V277" t="n">
+        <v>0.30811867476361215</v>
+      </c>
+      <c r="W277" t="n">
+        <v>4600.0</v>
+      </c>
+      <c r="X277" t="n">
+        <v>100.36</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>89.52505606516209</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>0.3812610803039285</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>-0.0033176074022353056</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>7442.0</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB277" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B278" s="3" t="n">
+        <v>44718.49124152778</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G278" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H278" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I278" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J278" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O278" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P278" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R278" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S278" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T278" t="n">
+        <v>26.133646092028112</v>
+      </c>
+      <c r="U278" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V278" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W278" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="X278" t="n">
+        <v>93.59</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>0.023502001271626796</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>-0.007082598081379105</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>23128.0</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AG278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB278" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B279" s="3" t="n">
+        <v>44718.491241550924</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G279" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H279" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L279" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M279" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O279" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P279" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R279" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S279" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T279" t="n">
+        <v>33.28879656414257</v>
+      </c>
+      <c r="U279" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V279" t="n">
+        <v>1.4080182048259688</v>
+      </c>
+      <c r="W279" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X279" t="n">
+        <v>103.57</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>44.534772363203224</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>0.3405000476924903</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>-0.015667995459482307</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>6628.0</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB279" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B280" s="3" t="n">
+        <v>44718.4912415625</v>
+      </c>
+      <c r="C280" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G280" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H280" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I280" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J280" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O280" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P280" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R280" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S280" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T280" t="n">
+        <v>25.881289317286715</v>
+      </c>
+      <c r="U280" t="n">
+        <v>1.568577424483491</v>
+      </c>
+      <c r="V280" t="n">
+        <v>1.1707929012809182</v>
+      </c>
+      <c r="W280" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X280" t="n">
+        <v>132.13</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>51.38090396391826</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>-0.09813596746666749</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>0.0011189229310391018</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>6138.0</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B281" s="3" t="n">
+        <v>44718.49124157408</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG281" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH281" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI281" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ281" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL281" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>124.36667782542435</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>28.74333868811022</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>26.408129501306636</v>
+      </c>
+      <c r="AR281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS281" t="n">
+        <v>97098.0</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AV281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB281" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B282" s="3" t="n">
+        <v>44718.491241585645</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU282" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV282" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW282" t="n">
+        <v>28.642806306700273</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>48062.0</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>99.15953196347031</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>10834.09526986352</v>
+      </c>
+      <c r="BA282" t="n">
+        <v>118.33881566831127</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B283" s="3" t="n">
+        <v>44718.4919083912</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G283" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H283" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I283" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L283" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M283" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O283" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P283" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R283" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S283" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T283" t="n">
+        <v>31.51058143010344</v>
+      </c>
+      <c r="U283" t="n">
+        <v>2.2790254442345246</v>
+      </c>
+      <c r="V283" t="n">
+        <v>0.30811867476361215</v>
+      </c>
+      <c r="W283" t="n">
+        <v>4600.0</v>
+      </c>
+      <c r="X283" t="n">
+        <v>100.36</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>89.52505606516209</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>0.3812610803039285</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>-0.0033176074022353056</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>7442.0</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB283" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B284" s="3" t="n">
+        <v>44718.49190849537</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G284" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H284" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I284" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J284" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O284" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R284" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S284" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T284" t="n">
+        <v>26.133646092028112</v>
+      </c>
+      <c r="U284" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V284" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W284" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="X284" t="n">
+        <v>93.59</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>0.023502001271626796</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>-0.007082598081379105</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>23128.0</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AG284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB284" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B285" s="3" t="n">
+        <v>44718.49190851852</v>
+      </c>
+      <c r="C285" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G285" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H285" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L285" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M285" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O285" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P285" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R285" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S285" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T285" t="n">
+        <v>33.28879656414257</v>
+      </c>
+      <c r="U285" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V285" t="n">
+        <v>1.4080182048259688</v>
+      </c>
+      <c r="W285" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X285" t="n">
+        <v>103.57</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>44.534772363203224</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>0.3405000476924903</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>-0.015667995459482307</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>6628.0</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB285" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B286" s="3" t="n">
+        <v>44718.49190854167</v>
+      </c>
+      <c r="C286" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G286" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H286" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I286" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J286" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O286" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P286" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R286" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S286" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T286" t="n">
+        <v>25.881289317286715</v>
+      </c>
+      <c r="U286" t="n">
+        <v>1.568577424483491</v>
+      </c>
+      <c r="V286" t="n">
+        <v>1.1707929012809182</v>
+      </c>
+      <c r="W286" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X286" t="n">
+        <v>132.13</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>51.38090396391826</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>-0.09813596746666749</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>0.0011189229310391018</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>6138.0</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB286" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B287" s="3" t="n">
+        <v>44718.49190855324</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG287" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH287" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI287" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ287" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL287" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>124.36667782542435</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>28.74333868811022</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>26.408129501306636</v>
+      </c>
+      <c r="AR287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS287" t="n">
+        <v>97098.0</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AV287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB287" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B288" s="3" t="n">
+        <v>44718.491908564814</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV288" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW288" t="n">
+        <v>28.642806306700273</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>48062.0</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>99.15953196347031</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>10834.09526986352</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>118.33881566831127</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Output/export_kpis.xlsx
+++ b/Output/export_kpis.xlsx
@@ -65138,6 +65138,4056 @@
         <v>-99.0</v>
       </c>
     </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B289" s="3" t="n">
+        <v>44718.554736956015</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G289" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H289" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I289" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L289" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M289" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O289" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P289" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R289" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S289" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T289" t="n">
+        <v>31.51058143010344</v>
+      </c>
+      <c r="U289" t="n">
+        <v>2.2790254442345246</v>
+      </c>
+      <c r="V289" t="n">
+        <v>0.30811867476361215</v>
+      </c>
+      <c r="W289" t="n">
+        <v>4600.0</v>
+      </c>
+      <c r="X289" t="n">
+        <v>100.36</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>89.52505606516209</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>0.3812610803039285</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>-0.0033176074022353056</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>7442.0</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B290" s="3" t="n">
+        <v>44718.554737060185</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G290" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H290" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I290" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J290" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O290" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S290" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T290" t="n">
+        <v>26.133646092028112</v>
+      </c>
+      <c r="U290" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V290" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W290" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="X290" t="n">
+        <v>93.59</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>0.023502001271626796</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>-0.007082598081379105</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>23128.0</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AG290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB290" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B291" s="3" t="n">
+        <v>44718.55473707176</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G291" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H291" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L291" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M291" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O291" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P291" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T291" t="n">
+        <v>33.28879656414257</v>
+      </c>
+      <c r="U291" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V291" t="n">
+        <v>1.4080182048259688</v>
+      </c>
+      <c r="W291" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X291" t="n">
+        <v>103.57</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>44.534772363203224</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>0.3405000476924903</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>-0.015667995459482307</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>6628.0</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B292" s="3" t="n">
+        <v>44718.554737094906</v>
+      </c>
+      <c r="C292" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G292" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H292" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I292" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J292" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O292" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P292" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T292" t="n">
+        <v>25.881289317286715</v>
+      </c>
+      <c r="U292" t="n">
+        <v>1.568577424483491</v>
+      </c>
+      <c r="V292" t="n">
+        <v>1.1707929012809182</v>
+      </c>
+      <c r="W292" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X292" t="n">
+        <v>132.13</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>51.38090396391826</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>-0.09813596746666749</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>0.0011189229310391018</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>6138.0</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB292" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B293" s="3" t="n">
+        <v>44718.55473710648</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG293" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH293" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI293" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ293" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL293" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>124.36667782542435</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>28.74333868811022</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>25.285148759350704</v>
+      </c>
+      <c r="AR293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS293" t="n">
+        <v>97098.0</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>397.0</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AV293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB293" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B294" s="3" t="n">
+        <v>44718.55473711806</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU294" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV294" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW294" t="n">
+        <v>28.642806306700273</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>48062.0</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>99.15953196347031</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>10834.09526986352</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>118.33881566831127</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B295" s="3" t="n">
+        <v>44718.55720002315</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G295" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H295" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I295" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L295" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M295" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O295" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P295" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T295" t="n">
+        <v>31.51058143010344</v>
+      </c>
+      <c r="U295" t="n">
+        <v>2.2790254442345246</v>
+      </c>
+      <c r="V295" t="n">
+        <v>0.30811867476361215</v>
+      </c>
+      <c r="W295" t="n">
+        <v>4600.0</v>
+      </c>
+      <c r="X295" t="n">
+        <v>100.36</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>89.52505606516209</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>0.3812610803039285</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>-0.0033176074022353056</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>7442.0</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB295" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B296" s="3" t="n">
+        <v>44718.557200104166</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G296" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H296" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I296" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J296" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O296" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S296" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T296" t="n">
+        <v>26.133646092028112</v>
+      </c>
+      <c r="U296" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V296" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W296" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="X296" t="n">
+        <v>93.59</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>0.023502001271626796</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>-0.007082598081379105</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>23128.0</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AG296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB296" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B297" s="3" t="n">
+        <v>44718.55720012732</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G297" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H297" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L297" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M297" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O297" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P297" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T297" t="n">
+        <v>33.28879656414257</v>
+      </c>
+      <c r="U297" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V297" t="n">
+        <v>1.4080182048259688</v>
+      </c>
+      <c r="W297" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X297" t="n">
+        <v>103.57</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>44.534772363203224</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>0.3405000476924903</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>-0.015667995459482307</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>6628.0</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB297" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B298" s="3" t="n">
+        <v>44718.55720015046</v>
+      </c>
+      <c r="C298" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F298" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G298" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H298" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I298" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J298" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O298" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P298" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T298" t="n">
+        <v>25.881289317286715</v>
+      </c>
+      <c r="U298" t="n">
+        <v>1.568577424483491</v>
+      </c>
+      <c r="V298" t="n">
+        <v>1.1707929012809182</v>
+      </c>
+      <c r="W298" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X298" t="n">
+        <v>132.13</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>51.38090396391826</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>-0.09813596746666749</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>0.0011189229310391018</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>6138.0</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B299" s="3" t="n">
+        <v>44718.55720016204</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG299" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH299" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI299" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ299" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL299" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>124.36667782542435</v>
+      </c>
+      <c r="AP299" t="n">
+        <v>28.74333868811022</v>
+      </c>
+      <c r="AQ299" t="n">
+        <v>25.285148759350704</v>
+      </c>
+      <c r="AR299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS299" t="n">
+        <v>97098.0</v>
+      </c>
+      <c r="AT299" t="n">
+        <v>397.0</v>
+      </c>
+      <c r="AU299" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AV299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB299" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B300" s="3" t="n">
+        <v>44718.55720016204</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV300" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW300" t="n">
+        <v>28.642806306700273</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>48062.0</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>99.15953196347031</v>
+      </c>
+      <c r="AZ300" t="n">
+        <v>10834.09526986352</v>
+      </c>
+      <c r="BA300" t="n">
+        <v>118.33881566831127</v>
+      </c>
+      <c r="BB300" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B301" s="3" t="n">
+        <v>44718.57063165509</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G301" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H301" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I301" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L301" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M301" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O301" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P301" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T301" t="n">
+        <v>31.51058143010344</v>
+      </c>
+      <c r="U301" t="n">
+        <v>2.2790254442345246</v>
+      </c>
+      <c r="V301" t="n">
+        <v>0.30811867476361215</v>
+      </c>
+      <c r="W301" t="n">
+        <v>4600.0</v>
+      </c>
+      <c r="X301" t="n">
+        <v>100.36</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>89.52505606516209</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>0.3812610803039285</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>-0.0033176074022353056</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>7442.0</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB301" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B302" s="3" t="n">
+        <v>44718.57063174769</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F302" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G302" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H302" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I302" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J302" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N302" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O302" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P302" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R302" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S302" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T302" t="n">
+        <v>26.133646092028112</v>
+      </c>
+      <c r="U302" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V302" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W302" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="X302" t="n">
+        <v>93.59</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>0.023502001271626796</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>-0.007082598081379105</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>23128.0</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AG302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB302" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B303" s="3" t="n">
+        <v>44718.57063177083</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F303" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G303" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H303" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L303" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M303" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N303" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O303" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P303" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R303" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S303" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T303" t="n">
+        <v>33.28879656414257</v>
+      </c>
+      <c r="U303" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V303" t="n">
+        <v>1.4080182048259688</v>
+      </c>
+      <c r="W303" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X303" t="n">
+        <v>103.57</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>44.534772363203224</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>0.3405000476924903</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>-0.015667995459482307</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>6628.0</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB303" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B304" s="3" t="n">
+        <v>44718.570631793984</v>
+      </c>
+      <c r="C304" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F304" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G304" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H304" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I304" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J304" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N304" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O304" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P304" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R304" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S304" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T304" t="n">
+        <v>25.881289317286715</v>
+      </c>
+      <c r="U304" t="n">
+        <v>1.568577424483491</v>
+      </c>
+      <c r="V304" t="n">
+        <v>1.1707929012809182</v>
+      </c>
+      <c r="W304" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X304" t="n">
+        <v>132.13</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>51.38090396391826</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>-0.09813596746666749</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>0.0011189229310391018</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>6138.0</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB304" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B305" s="3" t="n">
+        <v>44718.57063180555</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG305" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH305" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI305" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ305" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL305" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>124.36667782542435</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>28.74333868811022</v>
+      </c>
+      <c r="AQ305" t="n">
+        <v>25.234815727644598</v>
+      </c>
+      <c r="AR305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS305" t="n">
+        <v>97098.0</v>
+      </c>
+      <c r="AT305" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="AU305" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AV305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB305" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B306" s="3" t="n">
+        <v>44718.57063181713</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU306" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV306" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW306" t="n">
+        <v>28.642806306700273</v>
+      </c>
+      <c r="AX306" t="n">
+        <v>48062.0</v>
+      </c>
+      <c r="AY306" t="n">
+        <v>99.15953196347031</v>
+      </c>
+      <c r="AZ306" t="n">
+        <v>10834.09526986352</v>
+      </c>
+      <c r="BA306" t="n">
+        <v>118.33881566831127</v>
+      </c>
+      <c r="BB306" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Output/export_kpis.xlsx
+++ b/Output/export_kpis.xlsx
@@ -82688,6 +82688,4056 @@
         <v>-99.0</v>
       </c>
     </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B367" s="3" t="n">
+        <v>44725.72353490741</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F367" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G367" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H367" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I367" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K367" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L367" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M367" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N367" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O367" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P367" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R367" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S367" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T367" t="n">
+        <v>30.51570715030555</v>
+      </c>
+      <c r="U367" t="n">
+        <v>1.6563013558301172</v>
+      </c>
+      <c r="V367" t="n">
+        <v>0.32385804060187795</v>
+      </c>
+      <c r="W367" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="X367" t="n">
+        <v>79.52</v>
+      </c>
+      <c r="Y367" t="n">
+        <v>84.54103499944064</v>
+      </c>
+      <c r="Z367" t="n">
+        <v>7.334488812403141</v>
+      </c>
+      <c r="AA367" t="n">
+        <v>665.3754963175683</v>
+      </c>
+      <c r="AB367" t="n">
+        <v>-4.7968678199386705</v>
+      </c>
+      <c r="AC367" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD367" t="n">
+        <v>7259.0</v>
+      </c>
+      <c r="AE367" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="AF367" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB367" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B368" s="3" t="n">
+        <v>44725.723535034726</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F368" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G368" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H368" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I368" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J368" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L368" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M368" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N368" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O368" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P368" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R368" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S368" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T368" t="n">
+        <v>25.199301139762454</v>
+      </c>
+      <c r="U368" t="n">
+        <v>0.9646489351150732</v>
+      </c>
+      <c r="V368" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W368" t="n">
+        <v>4900.0</v>
+      </c>
+      <c r="X368" t="n">
+        <v>83.05</v>
+      </c>
+      <c r="Y368" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z368" t="n">
+        <v>14.353625409701616</v>
+      </c>
+      <c r="AA368" t="n">
+        <v>729.6340201238697</v>
+      </c>
+      <c r="AB368" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC368" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD368" t="n">
+        <v>23094.0</v>
+      </c>
+      <c r="AE368" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="AF368" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AG368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB368" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B369" s="3" t="n">
+        <v>44725.72353505787</v>
+      </c>
+      <c r="C369" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F369" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G369" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H369" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K369" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L369" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M369" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N369" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O369" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P369" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R369" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S369" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T369" t="n">
+        <v>33.495949185477755</v>
+      </c>
+      <c r="U369" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V369" t="n">
+        <v>1.4137189456117336</v>
+      </c>
+      <c r="W369" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X369" t="n">
+        <v>60.92</v>
+      </c>
+      <c r="Y369" t="n">
+        <v>41.86302765360449</v>
+      </c>
+      <c r="Z369" t="n">
+        <v>22.078881468929968</v>
+      </c>
+      <c r="AA369" t="n">
+        <v>1019.8456175547085</v>
+      </c>
+      <c r="AB369" t="n">
+        <v>-3.6336081410467473</v>
+      </c>
+      <c r="AC369" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD369" t="n">
+        <v>6608.0</v>
+      </c>
+      <c r="AE369" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AF369" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AG369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB369" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B370" s="3" t="n">
+        <v>44725.723535081015</v>
+      </c>
+      <c r="C370" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F370" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G370" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H370" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I370" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J370" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M370" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N370" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O370" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P370" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R370" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S370" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T370" t="n">
+        <v>26.83631878503719</v>
+      </c>
+      <c r="U370" t="n">
+        <v>1.1170052414094649</v>
+      </c>
+      <c r="V370" t="n">
+        <v>1.1856447013973996</v>
+      </c>
+      <c r="W370" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X370" t="n">
+        <v>103.55</v>
+      </c>
+      <c r="Y370" t="n">
+        <v>45.77205404089219</v>
+      </c>
+      <c r="Z370" t="n">
+        <v>7.32600600404623</v>
+      </c>
+      <c r="AA370" t="n">
+        <v>733.0726486292923</v>
+      </c>
+      <c r="AB370" t="n">
+        <v>-2.7296848231516835</v>
+      </c>
+      <c r="AC370" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD370" t="n">
+        <v>6026.0</v>
+      </c>
+      <c r="AE370" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="AF370" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B371" s="3" t="n">
+        <v>44725.72353510417</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG371" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH371" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI371" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ371" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL371" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM371" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN371" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO371" t="n">
+        <v>122.52460981160796</v>
+      </c>
+      <c r="AP371" t="n">
+        <v>27.149351480758565</v>
+      </c>
+      <c r="AQ371" t="n">
+        <v>29.193350849988846</v>
+      </c>
+      <c r="AR371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS371" t="n">
+        <v>95634.0</v>
+      </c>
+      <c r="AT371" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AU371" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AV371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB371" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B372" s="3" t="n">
+        <v>44725.72353511574</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV372" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW372" t="n">
+        <v>21.80295045327562</v>
+      </c>
+      <c r="AX372" t="n">
+        <v>46467.0</v>
+      </c>
+      <c r="AY372" t="n">
+        <v>99.18093607305936</v>
+      </c>
+      <c r="AZ372" t="n">
+        <v>10746.825129134499</v>
+      </c>
+      <c r="BA372" t="n">
+        <v>97.00387043595131</v>
+      </c>
+      <c r="BB372" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B373" s="3" t="n">
+        <v>44728.59215813658</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F373" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G373" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H373" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I373" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K373" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L373" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M373" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N373" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O373" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P373" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R373" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S373" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T373" t="n">
+        <v>32.81946535252558</v>
+      </c>
+      <c r="U373" t="n">
+        <v>1.630778385743953</v>
+      </c>
+      <c r="V373" t="n">
+        <v>0.1585220011678203</v>
+      </c>
+      <c r="W373" t="n">
+        <v>4700.0</v>
+      </c>
+      <c r="X373" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Y373" t="n">
+        <v>92.97468299795165</v>
+      </c>
+      <c r="Z373" t="n">
+        <v>3.4264659539015057</v>
+      </c>
+      <c r="AA373" t="n">
+        <v>-98.96417057504208</v>
+      </c>
+      <c r="AB373" t="n">
+        <v>9.975804056062014</v>
+      </c>
+      <c r="AC373" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="AD373" t="n">
+        <v>6000.0</v>
+      </c>
+      <c r="AE373" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AF373" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AG373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB373" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B374" s="3" t="n">
+        <v>44728.592158252315</v>
+      </c>
+      <c r="C374" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F374" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G374" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H374" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I374" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J374" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L374" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M374" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N374" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O374" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P374" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R374" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S374" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T374" t="n">
+        <v>24.35049497013346</v>
+      </c>
+      <c r="U374" t="n">
+        <v>0.777812080424967</v>
+      </c>
+      <c r="V374" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W374" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="X374" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Y374" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z374" t="n">
+        <v>-7.767017542711537</v>
+      </c>
+      <c r="AA374" t="n">
+        <v>-99.08866764384328</v>
+      </c>
+      <c r="AB374" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC374" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD374" t="n">
+        <v>22110.0</v>
+      </c>
+      <c r="AE374" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AF374" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AG374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB374" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B375" s="3" t="n">
+        <v>44728.592158287036</v>
+      </c>
+      <c r="C375" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F375" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G375" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H375" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K375" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L375" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M375" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N375" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O375" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P375" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R375" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S375" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T375" t="n">
+        <v>31.10266259493928</v>
+      </c>
+      <c r="U375" t="n">
+        <v>1.292292948236146</v>
+      </c>
+      <c r="V375" t="n">
+        <v>0.8381908576394796</v>
+      </c>
+      <c r="W375" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X375" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="Y375" t="n">
+        <v>56.66722591343796</v>
+      </c>
+      <c r="Z375" t="n">
+        <v>0.2252278328204173</v>
+      </c>
+      <c r="AA375" t="n">
+        <v>-98.88789163701705</v>
+      </c>
+      <c r="AB375" t="n">
+        <v>35.363419918718655</v>
+      </c>
+      <c r="AC375" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD375" t="n">
+        <v>5636.0</v>
+      </c>
+      <c r="AE375" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AF375" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AG375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB375" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B376" s="3" t="n">
+        <v>44728.59215831019</v>
+      </c>
+      <c r="C376" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F376" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G376" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H376" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I376" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J376" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L376" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M376" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N376" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O376" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P376" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R376" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S376" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T376" t="n">
+        <v>22.333701129142522</v>
+      </c>
+      <c r="U376" t="n">
+        <v>0.8446924907150006</v>
+      </c>
+      <c r="V376" t="n">
+        <v>0.6541783221201959</v>
+      </c>
+      <c r="W376" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X376" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Y376" t="n">
+        <v>66.46612097464856</v>
+      </c>
+      <c r="Z376" t="n">
+        <v>-0.39421905928557627</v>
+      </c>
+      <c r="AA376" t="n">
+        <v>-98.9824785499208</v>
+      </c>
+      <c r="AB376" t="n">
+        <v>45.211138908619965</v>
+      </c>
+      <c r="AC376" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD376" t="n">
+        <v>4247.0</v>
+      </c>
+      <c r="AE376" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AF376" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AG376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB376" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B377" s="3" t="n">
+        <v>44728.59215833333</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG377" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH377" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI377" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ377" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL377" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM377" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN377" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO377" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP377" t="n">
+        <v>70.693228571364</v>
+      </c>
+      <c r="AQ377" t="n">
+        <v>31.02189044736688</v>
+      </c>
+      <c r="AR377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS377" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT377" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AU377" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AV377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB377" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B378" s="3" t="n">
+        <v>44728.59215837963</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU378" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV378" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW378" t="n">
+        <v>0.22292110641523138</v>
+      </c>
+      <c r="AX378" t="n">
+        <v>457.0</v>
+      </c>
+      <c r="AY378" t="n">
+        <v>98.48726114649682</v>
+      </c>
+      <c r="AZ378" t="n">
+        <v>9497.989521941628</v>
+      </c>
+      <c r="BA378" t="n">
+        <v>0.9221938977796053</v>
+      </c>
+      <c r="BB378" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B379" s="3" t="n">
+        <v>44728.675368530094</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F379" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G379" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H379" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I379" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K379" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L379" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M379" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N379" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O379" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P379" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R379" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S379" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T379" t="n">
+        <v>30.51570715030555</v>
+      </c>
+      <c r="U379" t="n">
+        <v>1.6563013558301172</v>
+      </c>
+      <c r="V379" t="n">
+        <v>0.32385804060187795</v>
+      </c>
+      <c r="W379" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="X379" t="n">
+        <v>79.52</v>
+      </c>
+      <c r="Y379" t="n">
+        <v>84.54103499944064</v>
+      </c>
+      <c r="Z379" t="n">
+        <v>-4.0840738272142145</v>
+      </c>
+      <c r="AA379" t="n">
+        <v>9481.02579125245</v>
+      </c>
+      <c r="AB379" t="n">
+        <v>-9.070908043533539</v>
+      </c>
+      <c r="AC379" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD379" t="n">
+        <v>7259.0</v>
+      </c>
+      <c r="AE379" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="AF379" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B380" s="3" t="n">
+        <v>44728.67536862269</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F380" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G380" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H380" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I380" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J380" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L380" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M380" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N380" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O380" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P380" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R380" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S380" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T380" t="n">
+        <v>25.199301139762454</v>
+      </c>
+      <c r="U380" t="n">
+        <v>0.9646489351150732</v>
+      </c>
+      <c r="V380" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W380" t="n">
+        <v>4900.0</v>
+      </c>
+      <c r="X380" t="n">
+        <v>83.05</v>
+      </c>
+      <c r="Y380" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z380" t="n">
+        <v>9.271242058159322</v>
+      </c>
+      <c r="AA380" t="n">
+        <v>10827.153343999917</v>
+      </c>
+      <c r="AB380" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC380" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD380" t="n">
+        <v>23094.0</v>
+      </c>
+      <c r="AE380" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="AF380" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AG380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB380" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B381" s="3" t="n">
+        <v>44728.67536864583</v>
+      </c>
+      <c r="C381" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F381" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G381" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H381" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I381" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K381" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L381" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M381" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N381" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O381" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P381" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R381" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S381" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T381" t="n">
+        <v>33.495949185477755</v>
+      </c>
+      <c r="U381" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V381" t="n">
+        <v>1.4137189456117336</v>
+      </c>
+      <c r="W381" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X381" t="n">
+        <v>60.92</v>
+      </c>
+      <c r="Y381" t="n">
+        <v>41.86302765360449</v>
+      </c>
+      <c r="Z381" t="n">
+        <v>-1.0171231333000268</v>
+      </c>
+      <c r="AA381" t="n">
+        <v>8728.927767387846</v>
+      </c>
+      <c r="AB381" t="n">
+        <v>-26.124797925431587</v>
+      </c>
+      <c r="AC381" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD381" t="n">
+        <v>6608.0</v>
+      </c>
+      <c r="AE381" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AF381" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AG381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B382" s="3" t="n">
+        <v>44728.675368668984</v>
+      </c>
+      <c r="C382" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F382" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G382" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H382" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I382" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J382" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L382" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M382" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N382" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O382" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P382" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R382" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S382" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T382" t="n">
+        <v>26.83631878503719</v>
+      </c>
+      <c r="U382" t="n">
+        <v>1.1170052414094649</v>
+      </c>
+      <c r="V382" t="n">
+        <v>1.1856447013973996</v>
+      </c>
+      <c r="W382" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X382" t="n">
+        <v>103.55</v>
+      </c>
+      <c r="Y382" t="n">
+        <v>45.77205404089219</v>
+      </c>
+      <c r="Z382" t="n">
+        <v>-0.6240685147720089</v>
+      </c>
+      <c r="AA382" t="n">
+        <v>9577.657030338414</v>
+      </c>
+      <c r="AB382" t="n">
+        <v>-31.134759529068166</v>
+      </c>
+      <c r="AC382" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD382" t="n">
+        <v>6026.0</v>
+      </c>
+      <c r="AE382" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="AF382" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB382" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B383" s="3" t="n">
+        <v>44728.67536868055</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG383" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH383" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI383" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ383" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL383" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM383" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN383" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO383" t="n">
+        <v>122.52460981160796</v>
+      </c>
+      <c r="AP383" t="n">
+        <v>27.149351480758565</v>
+      </c>
+      <c r="AQ383" t="n">
+        <v>29.193350849988846</v>
+      </c>
+      <c r="AR383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS383" t="n">
+        <v>95634.0</v>
+      </c>
+      <c r="AT383" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AU383" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AV383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB383" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B384" s="3" t="n">
+        <v>44728.67536872685</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU384" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV384" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW384" t="n">
+        <v>21.80295045327562</v>
+      </c>
+      <c r="AX384" t="n">
+        <v>46467.0</v>
+      </c>
+      <c r="AY384" t="n">
+        <v>99.18093607305936</v>
+      </c>
+      <c r="AZ384" t="n">
+        <v>10746.825129134499</v>
+      </c>
+      <c r="BA384" t="n">
+        <v>97.00387043595131</v>
+      </c>
+      <c r="BB384" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Output/export_kpis.xlsx
+++ b/Output/export_kpis.xlsx
@@ -86738,6 +86738,2706 @@
         <v>-99.0</v>
       </c>
     </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B385" s="3" t="n">
+        <v>44728.74669502315</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F385" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G385" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H385" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I385" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K385" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L385" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M385" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O385" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P385" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T385" t="n">
+        <v>25.46618636191116</v>
+      </c>
+      <c r="U385" t="n">
+        <v>1.630778385743953</v>
+      </c>
+      <c r="V385" t="n">
+        <v>0.30811867476361215</v>
+      </c>
+      <c r="W385" t="n">
+        <v>4000.0</v>
+      </c>
+      <c r="X385" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="Y385" t="n">
+        <v>84.89940391898718</v>
+      </c>
+      <c r="Z385" t="n">
+        <v>-10.16162475353285</v>
+      </c>
+      <c r="AA385" t="n">
+        <v>-86.02073003295988</v>
+      </c>
+      <c r="AB385" t="n">
+        <v>0.42389937566875835</v>
+      </c>
+      <c r="AC385" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD385" t="n">
+        <v>6169.0</v>
+      </c>
+      <c r="AE385" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AF385" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AG385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B386" s="3" t="n">
+        <v>44728.746695104164</v>
+      </c>
+      <c r="C386" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F386" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G386" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H386" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I386" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J386" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O386" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S386" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T386" t="n">
+        <v>8.11186907354841</v>
+      </c>
+      <c r="U386" t="n">
+        <v>0.5979000917821877</v>
+      </c>
+      <c r="V386" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W386" t="n">
+        <v>3200.0</v>
+      </c>
+      <c r="X386" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="Y386" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z386" t="n">
+        <v>-35.13666419135154</v>
+      </c>
+      <c r="AA386" t="n">
+        <v>-91.65945726896652</v>
+      </c>
+      <c r="AB386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC386" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD386" t="n">
+        <v>22478.0</v>
+      </c>
+      <c r="AE386" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AF386" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="AG386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B387" s="3" t="n">
+        <v>44728.746695127316</v>
+      </c>
+      <c r="C387" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F387" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G387" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H387" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K387" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L387" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M387" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O387" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P387" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T387" t="n">
+        <v>34.740714184150015</v>
+      </c>
+      <c r="U387" t="n">
+        <v>1.292292948236146</v>
+      </c>
+      <c r="V387" t="n">
+        <v>1.4137189456117336</v>
+      </c>
+      <c r="W387" t="n">
+        <v>2800.0</v>
+      </c>
+      <c r="X387" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y387" t="n">
+        <v>39.77498804251507</v>
+      </c>
+      <c r="Z387" t="n">
+        <v>-24.11979903525545</v>
+      </c>
+      <c r="AA387" t="n">
+        <v>-92.37423794261464</v>
+      </c>
+      <c r="AB387" t="n">
+        <v>-4.987789293136892</v>
+      </c>
+      <c r="AC387" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD387" t="n">
+        <v>5729.0</v>
+      </c>
+      <c r="AE387" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="AF387" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AG387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B388" s="3" t="n">
+        <v>44728.74669515046</v>
+      </c>
+      <c r="C388" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F388" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G388" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H388" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I388" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J388" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O388" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P388" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T388" t="n">
+        <v>27.410131567729007</v>
+      </c>
+      <c r="U388" t="n">
+        <v>0.8446924907150006</v>
+      </c>
+      <c r="V388" t="n">
+        <v>1.1856447013973996</v>
+      </c>
+      <c r="W388" t="n">
+        <v>4600.0</v>
+      </c>
+      <c r="X388" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="Y388" t="n">
+        <v>43.41766378957561</v>
+      </c>
+      <c r="Z388" t="n">
+        <v>-15.54991205088301</v>
+      </c>
+      <c r="AA388" t="n">
+        <v>-88.19579490755613</v>
+      </c>
+      <c r="AB388" t="n">
+        <v>-5.143728636720557</v>
+      </c>
+      <c r="AC388" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD388" t="n">
+        <v>4474.0</v>
+      </c>
+      <c r="AE388" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="AF388" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AG388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B389" s="3" t="n">
+        <v>44728.74669515046</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG389" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH389" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI389" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ389" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL389" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM389" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN389" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO389" t="n">
+        <v>113.98225451271271</v>
+      </c>
+      <c r="AP389" t="n">
+        <v>36.31528637725874</v>
+      </c>
+      <c r="AQ389" t="n">
+        <v>25.37548555583892</v>
+      </c>
+      <c r="AR389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS389" t="n">
+        <v>16008.0</v>
+      </c>
+      <c r="AT389" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="AU389" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AV389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B390" s="3" t="n">
+        <v>44728.74669519676</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV390" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW390" t="n">
+        <v>2.326872547442524</v>
+      </c>
+      <c r="AX390" t="n">
+        <v>7052.0</v>
+      </c>
+      <c r="AY390" t="n">
+        <v>99.75</v>
+      </c>
+      <c r="AZ390" t="n">
+        <v>9712.539616648808</v>
+      </c>
+      <c r="BA390" t="n">
+        <v>14.971353006192516</v>
+      </c>
+      <c r="BB390" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B391" s="3" t="n">
+        <v>44728.75161148148</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F391" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G391" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H391" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I391" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K391" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L391" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M391" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O391" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P391" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T391" t="n">
+        <v>30.51570715030555</v>
+      </c>
+      <c r="U391" t="n">
+        <v>1.6563013558301172</v>
+      </c>
+      <c r="V391" t="n">
+        <v>0.32385804060187795</v>
+      </c>
+      <c r="W391" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="X391" t="n">
+        <v>79.52</v>
+      </c>
+      <c r="Y391" t="n">
+        <v>84.54103499944064</v>
+      </c>
+      <c r="Z391" t="n">
+        <v>12.701213253023298</v>
+      </c>
+      <c r="AA391" t="n">
+        <v>615.130522188807</v>
+      </c>
+      <c r="AB391" t="n">
+        <v>-0.42211005378612393</v>
+      </c>
+      <c r="AC391" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD391" t="n">
+        <v>7259.0</v>
+      </c>
+      <c r="AE391" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="AF391" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B392" s="3" t="n">
+        <v>44728.75161157407</v>
+      </c>
+      <c r="C392" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F392" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G392" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H392" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I392" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J392" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O392" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S392" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T392" t="n">
+        <v>26.782843037304342</v>
+      </c>
+      <c r="U392" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V392" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W392" t="n">
+        <v>4800.0</v>
+      </c>
+      <c r="X392" t="n">
+        <v>81.38</v>
+      </c>
+      <c r="Y392" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z392" t="n">
+        <v>51.45811826972482</v>
+      </c>
+      <c r="AA392" t="n">
+        <v>1074.3525280837025</v>
+      </c>
+      <c r="AB392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC392" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD392" t="n">
+        <v>23394.0</v>
+      </c>
+      <c r="AE392" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="AF392" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AG392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B393" s="3" t="n">
+        <v>44728.751611597225</v>
+      </c>
+      <c r="C393" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F393" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G393" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H393" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K393" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L393" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M393" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N393" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O393" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P393" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R393" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S393" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T393" t="n">
+        <v>33.495949185477755</v>
+      </c>
+      <c r="U393" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V393" t="n">
+        <v>1.4137189456117336</v>
+      </c>
+      <c r="W393" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X393" t="n">
+        <v>60.92</v>
+      </c>
+      <c r="Y393" t="n">
+        <v>41.86302765360449</v>
+      </c>
+      <c r="Z393" t="n">
+        <v>30.798801573853535</v>
+      </c>
+      <c r="AA393" t="n">
+        <v>1212.9224481675892</v>
+      </c>
+      <c r="AB393" t="n">
+        <v>5.249629764457848</v>
+      </c>
+      <c r="AC393" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD393" t="n">
+        <v>6608.0</v>
+      </c>
+      <c r="AE393" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AF393" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AG393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B394" s="3" t="n">
+        <v>44728.751611631946</v>
+      </c>
+      <c r="C394" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F394" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G394" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H394" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I394" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J394" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O394" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P394" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T394" t="n">
+        <v>26.83631878503719</v>
+      </c>
+      <c r="U394" t="n">
+        <v>1.1170052414094649</v>
+      </c>
+      <c r="V394" t="n">
+        <v>1.1856447013973996</v>
+      </c>
+      <c r="W394" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X394" t="n">
+        <v>103.55</v>
+      </c>
+      <c r="Y394" t="n">
+        <v>45.77205404089219</v>
+      </c>
+      <c r="Z394" t="n">
+        <v>16.65870217831112</v>
+      </c>
+      <c r="AA394" t="n">
+        <v>747.3889543749675</v>
+      </c>
+      <c r="AB394" t="n">
+        <v>5.42265531081352</v>
+      </c>
+      <c r="AC394" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD394" t="n">
+        <v>6026.0</v>
+      </c>
+      <c r="AE394" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="AF394" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B395" s="3" t="n">
+        <v>44728.75161164352</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG395" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH395" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI395" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ395" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL395" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM395" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN395" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO395" t="n">
+        <v>122.52460981160796</v>
+      </c>
+      <c r="AP395" t="n">
+        <v>27.149351480758565</v>
+      </c>
+      <c r="AQ395" t="n">
+        <v>29.512149165536368</v>
+      </c>
+      <c r="AR395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS395" t="n">
+        <v>96159.0</v>
+      </c>
+      <c r="AT395" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="AU395" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AV395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B396" s="3" t="n">
+        <v>44728.75161167824</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV396" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW396" t="n">
+        <v>21.692021197924706</v>
+      </c>
+      <c r="AX396" t="n">
+        <v>47022.0</v>
+      </c>
+      <c r="AY396" t="n">
+        <v>99.18093607305936</v>
+      </c>
+      <c r="AZ396" t="n">
+        <v>10821.672537630362</v>
+      </c>
+      <c r="BA396" t="n">
+        <v>95.80089748258845</v>
+      </c>
+      <c r="BB396" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Output/export_kpis.xlsx
+++ b/Output/export_kpis.xlsx
@@ -89438,6 +89438,8106 @@
         <v>-99.0</v>
       </c>
     </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B397" s="3" t="n">
+        <v>44732.530727743055</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F397" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G397" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H397" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I397" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K397" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L397" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M397" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O397" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P397" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T397" t="n">
+        <v>30.51570715030555</v>
+      </c>
+      <c r="U397" t="n">
+        <v>1.6563013558301172</v>
+      </c>
+      <c r="V397" t="n">
+        <v>0.32385804060187795</v>
+      </c>
+      <c r="W397" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="X397" t="n">
+        <v>79.52</v>
+      </c>
+      <c r="Y397" t="n">
+        <v>84.54103499944064</v>
+      </c>
+      <c r="Z397" t="n">
+        <v>0.1788562249095978</v>
+      </c>
+      <c r="AA397" t="n">
+        <v>0.003161553565572011</v>
+      </c>
+      <c r="AB397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC397" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD397" t="n">
+        <v>7259.0</v>
+      </c>
+      <c r="AE397" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="AF397" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B398" s="3" t="n">
+        <v>44732.530728032405</v>
+      </c>
+      <c r="C398" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F398" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G398" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H398" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I398" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J398" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O398" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S398" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T398" t="n">
+        <v>26.782843037304342</v>
+      </c>
+      <c r="U398" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V398" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W398" t="n">
+        <v>4800.0</v>
+      </c>
+      <c r="X398" t="n">
+        <v>81.38</v>
+      </c>
+      <c r="Y398" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z398" t="n">
+        <v>0.972078846483214</v>
+      </c>
+      <c r="AA398" t="n">
+        <v>0.0032319933651779914</v>
+      </c>
+      <c r="AB398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC398" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD398" t="n">
+        <v>23394.0</v>
+      </c>
+      <c r="AE398" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="AF398" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AG398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B399" s="3" t="n">
+        <v>44732.5307280787</v>
+      </c>
+      <c r="C399" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F399" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G399" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H399" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K399" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L399" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M399" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O399" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P399" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T399" t="n">
+        <v>33.495949185477755</v>
+      </c>
+      <c r="U399" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V399" t="n">
+        <v>1.4137189456117336</v>
+      </c>
+      <c r="W399" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X399" t="n">
+        <v>60.92</v>
+      </c>
+      <c r="Y399" t="n">
+        <v>41.86302765360449</v>
+      </c>
+      <c r="Z399" t="n">
+        <v>-1.0171231333000268</v>
+      </c>
+      <c r="AA399" t="n">
+        <v>-6.539806694973351E-4</v>
+      </c>
+      <c r="AB399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC399" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD399" t="n">
+        <v>6608.0</v>
+      </c>
+      <c r="AE399" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AF399" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AG399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B400" s="3" t="n">
+        <v>44732.53072811342</v>
+      </c>
+      <c r="C400" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F400" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G400" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H400" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I400" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J400" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O400" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P400" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T400" t="n">
+        <v>26.83631878503719</v>
+      </c>
+      <c r="U400" t="n">
+        <v>1.1170052414094649</v>
+      </c>
+      <c r="V400" t="n">
+        <v>1.1856447013973996</v>
+      </c>
+      <c r="W400" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X400" t="n">
+        <v>103.55</v>
+      </c>
+      <c r="Y400" t="n">
+        <v>45.77205404089219</v>
+      </c>
+      <c r="Z400" t="n">
+        <v>-0.6240685147720089</v>
+      </c>
+      <c r="AA400" t="n">
+        <v>8.983337721179853E-4</v>
+      </c>
+      <c r="AB400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC400" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD400" t="n">
+        <v>6026.0</v>
+      </c>
+      <c r="AE400" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="AF400" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B401" s="3" t="n">
+        <v>44732.530728125</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG401" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH401" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI401" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ401" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL401" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM401" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN401" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO401" t="n">
+        <v>122.52460981160796</v>
+      </c>
+      <c r="AP401" t="n">
+        <v>27.149351480758565</v>
+      </c>
+      <c r="AQ401" t="n">
+        <v>29.512149165536368</v>
+      </c>
+      <c r="AR401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS401" t="n">
+        <v>96159.0</v>
+      </c>
+      <c r="AT401" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="AU401" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AV401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B402" s="3" t="n">
+        <v>44732.530728171296</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV402" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW402" t="n">
+        <v>21.692021197924706</v>
+      </c>
+      <c r="AX402" t="n">
+        <v>47022.0</v>
+      </c>
+      <c r="AY402" t="n">
+        <v>99.18093607305936</v>
+      </c>
+      <c r="AZ402" t="n">
+        <v>10821.672537630362</v>
+      </c>
+      <c r="BA402" t="n">
+        <v>95.80089748258845</v>
+      </c>
+      <c r="BB402" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B403" s="3" t="n">
+        <v>44732.5926337037</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F403" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G403" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H403" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I403" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K403" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L403" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M403" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O403" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P403" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T403" t="n">
+        <v>30.514349825217458</v>
+      </c>
+      <c r="U403" t="n">
+        <v>1.6563013558301172</v>
+      </c>
+      <c r="V403" t="n">
+        <v>0.32385804060187795</v>
+      </c>
+      <c r="W403" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="X403" t="n">
+        <v>79.52</v>
+      </c>
+      <c r="Y403" t="n">
+        <v>84.55225777563055</v>
+      </c>
+      <c r="Z403" t="n">
+        <v>0.17810411223836126</v>
+      </c>
+      <c r="AA403" t="n">
+        <v>0.003187521875383616</v>
+      </c>
+      <c r="AB403" t="n">
+        <v>0.013274945344571293</v>
+      </c>
+      <c r="AC403" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD403" t="n">
+        <v>7259.0</v>
+      </c>
+      <c r="AE403" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="AF403" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B404" s="3" t="n">
+        <v>44732.59263380787</v>
+      </c>
+      <c r="C404" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F404" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G404" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H404" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I404" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J404" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O404" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S404" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T404" t="n">
+        <v>26.782842625496478</v>
+      </c>
+      <c r="U404" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V404" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W404" t="n">
+        <v>4800.0</v>
+      </c>
+      <c r="X404" t="n">
+        <v>81.38</v>
+      </c>
+      <c r="Y404" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z404" t="n">
+        <v>0.9718033800941915</v>
+      </c>
+      <c r="AA404" t="n">
+        <v>0.003230894878630543</v>
+      </c>
+      <c r="AB404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC404" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD404" t="n">
+        <v>23394.0</v>
+      </c>
+      <c r="AE404" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="AF404" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AG404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B405" s="3" t="n">
+        <v>44732.59263384259</v>
+      </c>
+      <c r="C405" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F405" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G405" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H405" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K405" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L405" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M405" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O405" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P405" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T405" t="n">
+        <v>33.495949185477755</v>
+      </c>
+      <c r="U405" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V405" t="n">
+        <v>1.4137189456117336</v>
+      </c>
+      <c r="W405" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X405" t="n">
+        <v>60.92</v>
+      </c>
+      <c r="Y405" t="n">
+        <v>41.86302765360449</v>
+      </c>
+      <c r="Z405" t="n">
+        <v>-1.0171231333000268</v>
+      </c>
+      <c r="AA405" t="n">
+        <v>-6.539806694973351E-4</v>
+      </c>
+      <c r="AB405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC405" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD405" t="n">
+        <v>6608.0</v>
+      </c>
+      <c r="AE405" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AF405" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AG405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B406" s="3" t="n">
+        <v>44732.59263386574</v>
+      </c>
+      <c r="C406" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F406" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G406" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H406" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I406" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J406" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O406" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P406" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T406" t="n">
+        <v>26.89465304703344</v>
+      </c>
+      <c r="U406" t="n">
+        <v>1.1170052414094649</v>
+      </c>
+      <c r="V406" t="n">
+        <v>1.1856447013973996</v>
+      </c>
+      <c r="W406" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X406" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="Y406" t="n">
+        <v>45.79653655049619</v>
+      </c>
+      <c r="Z406" t="n">
+        <v>-0.5176829834744644</v>
+      </c>
+      <c r="AA406" t="n">
+        <v>0.14176902425983182</v>
+      </c>
+      <c r="AB406" t="n">
+        <v>0.05348789805702518</v>
+      </c>
+      <c r="AC406" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD406" t="n">
+        <v>6028.0</v>
+      </c>
+      <c r="AE406" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="AF406" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B407" s="3" t="n">
+        <v>44732.59263387731</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG407" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH407" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI407" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ407" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL407" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM407" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN407" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO407" t="n">
+        <v>122.71452002376549</v>
+      </c>
+      <c r="AP407" t="n">
+        <v>27.18468748500733</v>
+      </c>
+      <c r="AQ407" t="n">
+        <v>29.485762183593657</v>
+      </c>
+      <c r="AR407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS407" t="n">
+        <v>96161.0</v>
+      </c>
+      <c r="AT407" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="AU407" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AV407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B408" s="3" t="n">
+        <v>44732.59263392361</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV408" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW408" t="n">
+        <v>21.701747288328146</v>
+      </c>
+      <c r="AX408" t="n">
+        <v>47045.0</v>
+      </c>
+      <c r="AY408" t="n">
+        <v>99.18022260273973</v>
+      </c>
+      <c r="AZ408" t="n">
+        <v>10822.250226297061</v>
+      </c>
+      <c r="BA408" t="n">
+        <v>95.82444733828699</v>
+      </c>
+      <c r="BB408" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B409" s="3" t="n">
+        <v>44732.76098564815</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F409" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G409" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H409" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I409" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K409" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L409" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M409" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N409" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O409" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P409" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R409" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S409" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T409" t="n">
+        <v>30.47182009208264</v>
+      </c>
+      <c r="U409" t="n">
+        <v>1.622152471910424</v>
+      </c>
+      <c r="V409" t="n">
+        <v>0.3256796528691778</v>
+      </c>
+      <c r="W409" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="X409" t="n">
+        <v>79.35</v>
+      </c>
+      <c r="Y409" t="n">
+        <v>84.25235611046773</v>
+      </c>
+      <c r="Z409" t="n">
+        <v>5.739067486299771E-4</v>
+      </c>
+      <c r="AA409" t="n">
+        <v>-0.21271401979313043</v>
+      </c>
+      <c r="AB409" t="n">
+        <v>-0.3546938580382391</v>
+      </c>
+      <c r="AC409" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD409" t="n">
+        <v>7248.0</v>
+      </c>
+      <c r="AE409" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="AF409" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B410" s="3" t="n">
+        <v>44732.76098575231</v>
+      </c>
+      <c r="C410" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F410" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G410" t="n">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="H410" t="n">
+        <v>39.473684210526315</v>
+      </c>
+      <c r="I410" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J410" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O410" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S410" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T410" t="n">
+        <v>16.877377889146302</v>
+      </c>
+      <c r="U410" t="n">
+        <v>1.0049573060905468</v>
+      </c>
+      <c r="V410" t="n">
+        <v>0.4014377502163632</v>
+      </c>
+      <c r="W410" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X410" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="Y410" t="n">
+        <v>70.23625510280057</v>
+      </c>
+      <c r="Z410" t="n">
+        <v>-22.911919168789517</v>
+      </c>
+      <c r="AA410" t="n">
+        <v>-46.91257869235197</v>
+      </c>
+      <c r="AB410" t="n">
+        <v>-29.76374489719943</v>
+      </c>
+      <c r="AC410" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD410" t="n">
+        <v>22930.0</v>
+      </c>
+      <c r="AE410" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="AF410" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AG410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B411" s="3" t="n">
+        <v>44732.760985787034</v>
+      </c>
+      <c r="C411" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F411" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G411" t="n">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H411" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I411" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K411" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="L411" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="M411" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N411" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O411" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P411" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R411" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S411" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T411" t="n">
+        <v>27.70637561438502</v>
+      </c>
+      <c r="U411" t="n">
+        <v>1.3541771744445954</v>
+      </c>
+      <c r="V411" t="n">
+        <v>0.62512837885395</v>
+      </c>
+      <c r="W411" t="n">
+        <v>4200.0</v>
+      </c>
+      <c r="X411" t="n">
+        <v>86.72</v>
+      </c>
+      <c r="Y411" t="n">
+        <v>64.51814841531001</v>
+      </c>
+      <c r="Z411" t="n">
+        <v>14.569542012877202</v>
+      </c>
+      <c r="AA411" t="n">
+        <v>42.34783954289141</v>
+      </c>
+      <c r="AB411" t="n">
+        <v>54.1172534131197</v>
+      </c>
+      <c r="AC411" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD411" t="n">
+        <v>6825.0</v>
+      </c>
+      <c r="AE411" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="AF411" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B412" s="3" t="n">
+        <v>44732.760985810186</v>
+      </c>
+      <c r="C412" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F412" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G412" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H412" t="n">
+        <v>37.142857142857146</v>
+      </c>
+      <c r="I412" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="J412" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O412" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P412" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="R412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T412" t="n">
+        <v>28.254583216388777</v>
+      </c>
+      <c r="U412" t="n">
+        <v>1.0549770602692103</v>
+      </c>
+      <c r="V412" t="n">
+        <v>0.9977976610573871</v>
+      </c>
+      <c r="W412" t="n">
+        <v>5100.0</v>
+      </c>
+      <c r="X412" t="n">
+        <v>99.58</v>
+      </c>
+      <c r="Y412" t="n">
+        <v>52.285562415279394</v>
+      </c>
+      <c r="Z412" t="n">
+        <v>-6.452587521043319</v>
+      </c>
+      <c r="AA412" t="n">
+        <v>-3.976614246302885</v>
+      </c>
+      <c r="AB412" t="n">
+        <v>14.169250239323818</v>
+      </c>
+      <c r="AC412" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD412" t="n">
+        <v>6400.0</v>
+      </c>
+      <c r="AE412" t="n">
+        <v>473.0</v>
+      </c>
+      <c r="AF412" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B413" s="3" t="n">
+        <v>44732.76098582176</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG413" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH413" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI413" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ413" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL413" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM413" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AN413" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="AO413" t="n">
+        <v>103.72328819760622</v>
+      </c>
+      <c r="AP413" t="n">
+        <v>51.773856452077425</v>
+      </c>
+      <c r="AQ413" t="n">
+        <v>20.220613172018396</v>
+      </c>
+      <c r="AR413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS413" t="n">
+        <v>127530.0</v>
+      </c>
+      <c r="AT413" t="n">
+        <v>671.0</v>
+      </c>
+      <c r="AU413" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AV413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B414" s="3" t="n">
+        <v>44732.76098585648</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU414" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV414" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW414" t="n">
+        <v>20.59010179453476</v>
+      </c>
+      <c r="AX414" t="n">
+        <v>1.5833038E7</v>
+      </c>
+      <c r="AY414" t="n">
+        <v>99.33219178082192</v>
+      </c>
+      <c r="AZ414" t="n">
+        <v>10850.848366657849</v>
+      </c>
+      <c r="BA414" t="n">
+        <v>95.91834429385817</v>
+      </c>
+      <c r="BB414" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B415" s="3" t="n">
+        <v>44732.76482909722</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F415" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G415" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H415" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I415" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K415" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L415" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M415" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N415" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O415" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P415" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R415" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S415" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T415" t="n">
+        <v>30.47182009208264</v>
+      </c>
+      <c r="U415" t="n">
+        <v>1.622152471910424</v>
+      </c>
+      <c r="V415" t="n">
+        <v>0.3256796528691778</v>
+      </c>
+      <c r="W415" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="X415" t="n">
+        <v>79.35</v>
+      </c>
+      <c r="Y415" t="n">
+        <v>84.25235611046773</v>
+      </c>
+      <c r="Z415" t="n">
+        <v>5.739067486299771E-4</v>
+      </c>
+      <c r="AA415" t="n">
+        <v>0.0010709659237588892</v>
+      </c>
+      <c r="AB415" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC415" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD415" t="n">
+        <v>7248.0</v>
+      </c>
+      <c r="AE415" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="AF415" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB415" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B416" s="3" t="n">
+        <v>44732.764829189815</v>
+      </c>
+      <c r="C416" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F416" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G416" t="n">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="H416" t="n">
+        <v>39.473684210526315</v>
+      </c>
+      <c r="I416" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J416" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L416" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M416" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N416" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O416" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P416" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R416" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S416" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T416" t="n">
+        <v>16.877377889146302</v>
+      </c>
+      <c r="U416" t="n">
+        <v>1.0049573060905468</v>
+      </c>
+      <c r="V416" t="n">
+        <v>0.4014377502163632</v>
+      </c>
+      <c r="W416" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X416" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="Y416" t="n">
+        <v>70.23625510280057</v>
+      </c>
+      <c r="Z416" t="n">
+        <v>0.00615891616495434</v>
+      </c>
+      <c r="AA416" t="n">
+        <v>0.005887639268436302</v>
+      </c>
+      <c r="AB416" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC416" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD416" t="n">
+        <v>22930.0</v>
+      </c>
+      <c r="AE416" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="AF416" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AG416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB416" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B417" s="3" t="n">
+        <v>44732.76482921296</v>
+      </c>
+      <c r="C417" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F417" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G417" t="n">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H417" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I417" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K417" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="L417" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="M417" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N417" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O417" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P417" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q417" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R417" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S417" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T417" t="n">
+        <v>27.70637561438502</v>
+      </c>
+      <c r="U417" t="n">
+        <v>1.3541771744445954</v>
+      </c>
+      <c r="V417" t="n">
+        <v>0.62512837885395</v>
+      </c>
+      <c r="W417" t="n">
+        <v>4200.0</v>
+      </c>
+      <c r="X417" t="n">
+        <v>86.72</v>
+      </c>
+      <c r="Y417" t="n">
+        <v>64.51814841531001</v>
+      </c>
+      <c r="Z417" t="n">
+        <v>0.9303108208680116</v>
+      </c>
+      <c r="AA417" t="n">
+        <v>-0.001955893070288434</v>
+      </c>
+      <c r="AB417" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC417" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD417" t="n">
+        <v>6825.0</v>
+      </c>
+      <c r="AE417" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="AF417" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB417" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B418" s="3" t="n">
+        <v>44732.76482923611</v>
+      </c>
+      <c r="C418" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F418" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G418" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H418" t="n">
+        <v>37.142857142857146</v>
+      </c>
+      <c r="I418" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="J418" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L418" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M418" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N418" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O418" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P418" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="Q418" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="R418" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S418" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T418" t="n">
+        <v>28.254583216388777</v>
+      </c>
+      <c r="U418" t="n">
+        <v>1.0549770602692103</v>
+      </c>
+      <c r="V418" t="n">
+        <v>0.9977976610573871</v>
+      </c>
+      <c r="W418" t="n">
+        <v>5100.0</v>
+      </c>
+      <c r="X418" t="n">
+        <v>99.58</v>
+      </c>
+      <c r="Y418" t="n">
+        <v>52.285562415279394</v>
+      </c>
+      <c r="Z418" t="n">
+        <v>-0.9497985516929262</v>
+      </c>
+      <c r="AA418" t="n">
+        <v>-0.0037647855152558325</v>
+      </c>
+      <c r="AB418" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC418" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD418" t="n">
+        <v>6400.0</v>
+      </c>
+      <c r="AE418" t="n">
+        <v>473.0</v>
+      </c>
+      <c r="AF418" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB418" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B419" s="3" t="n">
+        <v>44732.76482924769</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG419" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH419" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI419" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ419" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL419" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM419" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AN419" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="AO419" t="n">
+        <v>103.72328819760622</v>
+      </c>
+      <c r="AP419" t="n">
+        <v>51.773856452077425</v>
+      </c>
+      <c r="AQ419" t="n">
+        <v>20.278278032374633</v>
+      </c>
+      <c r="AR419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS419" t="n">
+        <v>127530.0</v>
+      </c>
+      <c r="AT419" t="n">
+        <v>669.0</v>
+      </c>
+      <c r="AU419" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AV419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB419" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B420" s="3" t="n">
+        <v>44732.764829293985</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU420" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV420" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW420" t="n">
+        <v>20.59010179453476</v>
+      </c>
+      <c r="AX420" t="n">
+        <v>1.5634461E7</v>
+      </c>
+      <c r="AY420" t="n">
+        <v>99.33219178082192</v>
+      </c>
+      <c r="AZ420" t="n">
+        <v>10850.848366657849</v>
+      </c>
+      <c r="BA420" t="n">
+        <v>95.69322263790265</v>
+      </c>
+      <c r="BB420" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B421" s="3" t="n">
+        <v>44732.76670666667</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F421" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G421" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H421" t="n">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I421" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K421" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L421" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M421" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N421" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O421" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P421" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q421" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R421" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S421" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T421" t="n">
+        <v>29.033582865421444</v>
+      </c>
+      <c r="U421" t="n">
+        <v>1.493009520293959</v>
+      </c>
+      <c r="V421" t="n">
+        <v>0.3256796528691778</v>
+      </c>
+      <c r="W421" t="n">
+        <v>4400.0</v>
+      </c>
+      <c r="X421" t="n">
+        <v>82.63</v>
+      </c>
+      <c r="Y421" t="n">
+        <v>83.9534617100742</v>
+      </c>
+      <c r="Z421" t="n">
+        <v>-2.797405411614232</v>
+      </c>
+      <c r="AA421" t="n">
+        <v>4.126573566220089</v>
+      </c>
+      <c r="AB421" t="n">
+        <v>-0.35476088051667015</v>
+      </c>
+      <c r="AC421" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD421" t="n">
+        <v>7168.0</v>
+      </c>
+      <c r="AE421" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="AF421" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB421" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B422" s="3" t="n">
+        <v>44732.76670675926</v>
+      </c>
+      <c r="C422" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F422" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G422" t="n">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="H422" t="n">
+        <v>39.473684210526315</v>
+      </c>
+      <c r="I422" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J422" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L422" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M422" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N422" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O422" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P422" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q422" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R422" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S422" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T422" t="n">
+        <v>16.896873490673894</v>
+      </c>
+      <c r="U422" t="n">
+        <v>0.8847395987708555</v>
+      </c>
+      <c r="V422" t="n">
+        <v>0.4014377502163632</v>
+      </c>
+      <c r="W422" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X422" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="Y422" t="n">
+        <v>70.14761984797134</v>
+      </c>
+      <c r="Z422" t="n">
+        <v>0.028588689201176354</v>
+      </c>
+      <c r="AA422" t="n">
+        <v>0.03915708371291489</v>
+      </c>
+      <c r="AB422" t="n">
+        <v>-0.12619587234469987</v>
+      </c>
+      <c r="AC422" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD422" t="n">
+        <v>22929.0</v>
+      </c>
+      <c r="AE422" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="AF422" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AG422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB422" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B423" s="3" t="n">
+        <v>44732.76670678241</v>
+      </c>
+      <c r="C423" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F423" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G423" t="n">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H423" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="I423" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K423" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="L423" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="M423" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N423" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O423" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P423" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R423" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S423" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T423" t="n">
+        <v>28.578705038581564</v>
+      </c>
+      <c r="U423" t="n">
+        <v>1.4332078487629443</v>
+      </c>
+      <c r="V423" t="n">
+        <v>0.62512837885395</v>
+      </c>
+      <c r="W423" t="n">
+        <v>4300.0</v>
+      </c>
+      <c r="X423" t="n">
+        <v>81.76</v>
+      </c>
+      <c r="Y423" t="n">
+        <v>66.1793805903001</v>
+      </c>
+      <c r="Z423" t="n">
+        <v>3.166232273030519</v>
+      </c>
+      <c r="AA423" t="n">
+        <v>-5.722169479306214</v>
+      </c>
+      <c r="AB423" t="n">
+        <v>2.5748292779522535</v>
+      </c>
+      <c r="AC423" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD423" t="n">
+        <v>6881.0</v>
+      </c>
+      <c r="AE423" t="n">
+        <v>314.0</v>
+      </c>
+      <c r="AF423" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AG423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB423" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B424" s="3" t="n">
+        <v>44732.76670680555</v>
+      </c>
+      <c r="C424" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F424" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G424" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="H424" t="n">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="I424" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="J424" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L424" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M424" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N424" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O424" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P424" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="R424" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S424" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T424" t="n">
+        <v>27.39420364827401</v>
+      </c>
+      <c r="U424" t="n">
+        <v>1.1049770602692104</v>
+      </c>
+      <c r="V424" t="n">
+        <v>0.8655049734758243</v>
+      </c>
+      <c r="W424" t="n">
+        <v>5100.0</v>
+      </c>
+      <c r="X424" t="n">
+        <v>101.98</v>
+      </c>
+      <c r="Y424" t="n">
+        <v>54.69219347592627</v>
+      </c>
+      <c r="Z424" t="n">
+        <v>-0.31102934270952304</v>
+      </c>
+      <c r="AA424" t="n">
+        <v>2.406041130231799</v>
+      </c>
+      <c r="AB424" t="n">
+        <v>4.602859660439617</v>
+      </c>
+      <c r="AC424" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD424" t="n">
+        <v>6425.0</v>
+      </c>
+      <c r="AE424" t="n">
+        <v>471.0</v>
+      </c>
+      <c r="AF424" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB424" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B425" s="3" t="n">
+        <v>44732.76670681713</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG425" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH425" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI425" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ425" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL425" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM425" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AN425" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="AO425" t="n">
+        <v>105.36713891775216</v>
+      </c>
+      <c r="AP425" t="n">
+        <v>50.70919581174893</v>
+      </c>
+      <c r="AQ425" t="n">
+        <v>18.15936891107191</v>
+      </c>
+      <c r="AR425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS425" t="n">
+        <v>124180.0</v>
+      </c>
+      <c r="AT425" t="n">
+        <v>732.0</v>
+      </c>
+      <c r="AU425" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AV425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB425" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B426" s="3" t="n">
+        <v>44732.766706863425</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU426" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV426" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW426" t="n">
+        <v>20.63857340935158</v>
+      </c>
+      <c r="AX426" t="n">
+        <v>1.5414987E7</v>
+      </c>
+      <c r="AY426" t="n">
+        <v>99.37571347031962</v>
+      </c>
+      <c r="AZ426" t="n">
+        <v>10850.709353266151</v>
+      </c>
+      <c r="BA426" t="n">
+        <v>95.05621449669323</v>
+      </c>
+      <c r="BB426" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B427" s="3" t="n">
+        <v>44732.76985787037</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F427" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G427" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H427" t="n">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I427" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K427" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L427" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M427" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N427" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O427" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P427" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q427" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R427" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S427" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T427" t="n">
+        <v>29.038429291861416</v>
+      </c>
+      <c r="U427" t="n">
+        <v>1.493009520293959</v>
+      </c>
+      <c r="V427" t="n">
+        <v>0.3256796528691778</v>
+      </c>
+      <c r="W427" t="n">
+        <v>4400.0</v>
+      </c>
+      <c r="X427" t="n">
+        <v>82.63</v>
+      </c>
+      <c r="Y427" t="n">
+        <v>83.94250432678704</v>
+      </c>
+      <c r="Z427" t="n">
+        <v>-0.5805881910626506</v>
+      </c>
+      <c r="AA427" t="n">
+        <v>0.0024927344409313343</v>
+      </c>
+      <c r="AB427" t="n">
+        <v>-0.013051734930227609</v>
+      </c>
+      <c r="AC427" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD427" t="n">
+        <v>7169.0</v>
+      </c>
+      <c r="AE427" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="AF427" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB427" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B428" s="3" t="n">
+        <v>44732.769857962965</v>
+      </c>
+      <c r="C428" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F428" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G428" t="n">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="H428" t="n">
+        <v>39.473684210526315</v>
+      </c>
+      <c r="I428" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J428" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L428" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M428" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N428" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O428" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P428" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q428" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R428" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S428" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T428" t="n">
+        <v>16.898367568410436</v>
+      </c>
+      <c r="U428" t="n">
+        <v>0.8199573060905471</v>
+      </c>
+      <c r="V428" t="n">
+        <v>0.4014377502163632</v>
+      </c>
+      <c r="W428" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X428" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="Y428" t="n">
+        <v>70.1564895591683</v>
+      </c>
+      <c r="Z428" t="n">
+        <v>0.3715146505657587</v>
+      </c>
+      <c r="AA428" t="n">
+        <v>0.6782963691885853</v>
+      </c>
+      <c r="AB428" t="n">
+        <v>0.012644350893427532</v>
+      </c>
+      <c r="AC428" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD428" t="n">
+        <v>22934.0</v>
+      </c>
+      <c r="AE428" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="AF428" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB428" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B429" s="3" t="n">
+        <v>44732.76985798611</v>
+      </c>
+      <c r="C429" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F429" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G429" t="n">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H429" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="I429" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K429" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="L429" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="M429" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N429" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O429" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P429" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="R429" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S429" t="n">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="T429" t="n">
+        <v>21.421924167817387</v>
+      </c>
+      <c r="U429" t="n">
+        <v>1.0286497492738234</v>
+      </c>
+      <c r="V429" t="n">
+        <v>0.62512837885395</v>
+      </c>
+      <c r="W429" t="n">
+        <v>4400.0</v>
+      </c>
+      <c r="X429" t="n">
+        <v>64.69</v>
+      </c>
+      <c r="Y429" t="n">
+        <v>62.21674885313061</v>
+      </c>
+      <c r="Z429" t="n">
+        <v>1.4202133379369835</v>
+      </c>
+      <c r="AA429" t="n">
+        <v>-20.883215272822003</v>
+      </c>
+      <c r="AB429" t="n">
+        <v>-5.987713547367789</v>
+      </c>
+      <c r="AC429" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD429" t="n">
+        <v>24715.0</v>
+      </c>
+      <c r="AE429" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="AF429" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB429" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B430" s="3" t="n">
+        <v>44732.76985800926</v>
+      </c>
+      <c r="C430" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F430" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G430" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="H430" t="n">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="I430" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="J430" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L430" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M430" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N430" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O430" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P430" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="Q430" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="R430" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S430" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T430" t="n">
+        <v>27.394528825338355</v>
+      </c>
+      <c r="U430" t="n">
+        <v>1.1049770602692104</v>
+      </c>
+      <c r="V430" t="n">
+        <v>0.8655049734758243</v>
+      </c>
+      <c r="W430" t="n">
+        <v>5100.0</v>
+      </c>
+      <c r="X430" t="n">
+        <v>101.98</v>
+      </c>
+      <c r="Y430" t="n">
+        <v>54.694741297158686</v>
+      </c>
+      <c r="Z430" t="n">
+        <v>-0.3093618049375686</v>
+      </c>
+      <c r="AA430" t="n">
+        <v>-0.001778184462814119</v>
+      </c>
+      <c r="AB430" t="n">
+        <v>0.004658473303946532</v>
+      </c>
+      <c r="AC430" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD430" t="n">
+        <v>6425.0</v>
+      </c>
+      <c r="AE430" t="n">
+        <v>471.0</v>
+      </c>
+      <c r="AF430" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB430" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B431" s="3" t="n">
+        <v>44732.76985802083</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG431" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH431" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI431" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ431" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL431" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM431" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AN431" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="AO431" t="n">
+        <v>98.7105645784725</v>
+      </c>
+      <c r="AP431" t="n">
+        <v>48.598314093485115</v>
+      </c>
+      <c r="AQ431" t="n">
+        <v>17.342859518776198</v>
+      </c>
+      <c r="AR431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS431" t="n">
+        <v>181366.0</v>
+      </c>
+      <c r="AT431" t="n">
+        <v>734.0</v>
+      </c>
+      <c r="AU431" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AV431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB431" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B432" s="3" t="n">
+        <v>44732.76985806713</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU432" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV432" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW432" t="n">
+        <v>19.520857867196067</v>
+      </c>
+      <c r="AX432" t="n">
+        <v>1.7971092E7</v>
+      </c>
+      <c r="AY432" t="n">
+        <v>99.55051369863013</v>
+      </c>
+      <c r="AZ432" t="n">
+        <v>15310.53680647634</v>
+      </c>
+      <c r="BA432" t="n">
+        <v>95.52132421149742</v>
+      </c>
+      <c r="BB432" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Output/export_kpis.xlsx
+++ b/Output/export_kpis.xlsx
@@ -97538,6 +97538,1356 @@
         <v>-99.0</v>
       </c>
     </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B433" s="3" t="n">
+        <v>44733.72402079861</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F433" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G433" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H433" t="n">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I433" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K433" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L433" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M433" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N433" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O433" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P433" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q433" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R433" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S433" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T433" t="n">
+        <v>29.038429291861416</v>
+      </c>
+      <c r="U433" t="n">
+        <v>1.493009520293959</v>
+      </c>
+      <c r="V433" t="n">
+        <v>0.3256796528691778</v>
+      </c>
+      <c r="W433" t="n">
+        <v>4400.0</v>
+      </c>
+      <c r="X433" t="n">
+        <v>82.63</v>
+      </c>
+      <c r="Y433" t="n">
+        <v>83.94250432678704</v>
+      </c>
+      <c r="Z433" t="n">
+        <v>-0.5805881910626506</v>
+      </c>
+      <c r="AA433" t="n">
+        <v>0.0024927344409313343</v>
+      </c>
+      <c r="AB433" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC433" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD433" t="n">
+        <v>7169.0</v>
+      </c>
+      <c r="AE433" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="AF433" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB433" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B434" s="3" t="n">
+        <v>44733.72402107639</v>
+      </c>
+      <c r="C434" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F434" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G434" t="n">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="H434" t="n">
+        <v>39.473684210526315</v>
+      </c>
+      <c r="I434" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J434" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L434" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M434" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N434" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O434" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P434" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q434" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R434" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S434" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T434" t="n">
+        <v>16.898367568410436</v>
+      </c>
+      <c r="U434" t="n">
+        <v>0.8199573060905471</v>
+      </c>
+      <c r="V434" t="n">
+        <v>0.4014377502163632</v>
+      </c>
+      <c r="W434" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X434" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="Y434" t="n">
+        <v>70.1564895591683</v>
+      </c>
+      <c r="Z434" t="n">
+        <v>0.3715146505657587</v>
+      </c>
+      <c r="AA434" t="n">
+        <v>0.007261987504726663</v>
+      </c>
+      <c r="AB434" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC434" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD434" t="n">
+        <v>22934.0</v>
+      </c>
+      <c r="AE434" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="AF434" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB434" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B435" s="3" t="n">
+        <v>44733.72402111111</v>
+      </c>
+      <c r="C435" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F435" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G435" t="n">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H435" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="I435" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K435" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="L435" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="M435" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N435" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O435" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P435" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q435" t="n">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="R435" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S435" t="n">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="T435" t="n">
+        <v>21.421924167817387</v>
+      </c>
+      <c r="U435" t="n">
+        <v>1.0286497492738234</v>
+      </c>
+      <c r="V435" t="n">
+        <v>0.62512837885395</v>
+      </c>
+      <c r="W435" t="n">
+        <v>4400.0</v>
+      </c>
+      <c r="X435" t="n">
+        <v>64.69</v>
+      </c>
+      <c r="Y435" t="n">
+        <v>62.21674885313061</v>
+      </c>
+      <c r="Z435" t="n">
+        <v>-0.8847915106524934</v>
+      </c>
+      <c r="AA435" t="n">
+        <v>-0.006363900230744268</v>
+      </c>
+      <c r="AB435" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC435" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD435" t="n">
+        <v>24715.0</v>
+      </c>
+      <c r="AE435" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="AF435" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB435" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B436" s="3" t="n">
+        <v>44733.724021145834</v>
+      </c>
+      <c r="C436" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F436" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G436" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="H436" t="n">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="I436" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="J436" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L436" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M436" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N436" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O436" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P436" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="Q436" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="R436" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S436" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T436" t="n">
+        <v>27.394528825338355</v>
+      </c>
+      <c r="U436" t="n">
+        <v>1.1049770602692104</v>
+      </c>
+      <c r="V436" t="n">
+        <v>0.8655049734758243</v>
+      </c>
+      <c r="W436" t="n">
+        <v>5100.0</v>
+      </c>
+      <c r="X436" t="n">
+        <v>101.98</v>
+      </c>
+      <c r="Y436" t="n">
+        <v>54.694741297158686</v>
+      </c>
+      <c r="Z436" t="n">
+        <v>-0.3093618049375686</v>
+      </c>
+      <c r="AA436" t="n">
+        <v>-0.001778184462814119</v>
+      </c>
+      <c r="AB436" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC436" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD436" t="n">
+        <v>6425.0</v>
+      </c>
+      <c r="AE436" t="n">
+        <v>471.0</v>
+      </c>
+      <c r="AF436" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB436" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B437" s="3" t="n">
+        <v>44733.72402116898</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG437" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH437" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI437" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ437" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL437" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM437" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AN437" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="AO437" t="n">
+        <v>98.7105645784725</v>
+      </c>
+      <c r="AP437" t="n">
+        <v>48.598314093485115</v>
+      </c>
+      <c r="AQ437" t="n">
+        <v>17.342859518776198</v>
+      </c>
+      <c r="AR437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS437" t="n">
+        <v>181366.0</v>
+      </c>
+      <c r="AT437" t="n">
+        <v>734.0</v>
+      </c>
+      <c r="AU437" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AV437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB437" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B438" s="3" t="n">
+        <v>44733.72402122685</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU438" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV438" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW438" t="n">
+        <v>19.520857867196067</v>
+      </c>
+      <c r="AX438" t="n">
+        <v>1.7971092E7</v>
+      </c>
+      <c r="AY438" t="n">
+        <v>99.55051369863013</v>
+      </c>
+      <c r="AZ438" t="n">
+        <v>15310.53680647634</v>
+      </c>
+      <c r="BA438" t="n">
+        <v>95.52132421149742</v>
+      </c>
+      <c r="BB438" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Output/export_kpis.xlsx
+++ b/Output/export_kpis.xlsx
@@ -98888,6 +98888,7740 @@
         <v>-99.0</v>
       </c>
     </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B439" s="3" t="n">
+        <v>44734.413363912034</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F439" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G439" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H439" t="n">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I439" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K439" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L439" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M439" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N439" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O439" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P439" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q439" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R439" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S439" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T439" t="n">
+        <v>29.038429291861416</v>
+      </c>
+      <c r="U439" t="n">
+        <v>1.493009520293959</v>
+      </c>
+      <c r="V439" t="n">
+        <v>0.3256796528691778</v>
+      </c>
+      <c r="W439" t="n">
+        <v>4400.0</v>
+      </c>
+      <c r="X439" t="n">
+        <v>82.63</v>
+      </c>
+      <c r="Y439" t="n">
+        <v>83.94250432678704</v>
+      </c>
+      <c r="Z439" t="n">
+        <v>-0.5805881910626506</v>
+      </c>
+      <c r="AA439" t="n">
+        <v>0.0024927344409313343</v>
+      </c>
+      <c r="AB439" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC439" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD439" t="n">
+        <v>7169.0</v>
+      </c>
+      <c r="AE439" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="AF439" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB439" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B440" s="3" t="n">
+        <v>44734.413364224536</v>
+      </c>
+      <c r="C440" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F440" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G440" t="n">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="H440" t="n">
+        <v>39.473684210526315</v>
+      </c>
+      <c r="I440" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J440" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L440" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M440" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N440" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O440" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P440" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q440" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R440" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S440" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T440" t="n">
+        <v>16.898367568410436</v>
+      </c>
+      <c r="U440" t="n">
+        <v>0.8199573060905471</v>
+      </c>
+      <c r="V440" t="n">
+        <v>0.4014377502163632</v>
+      </c>
+      <c r="W440" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X440" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="Y440" t="n">
+        <v>70.1564895591683</v>
+      </c>
+      <c r="Z440" t="n">
+        <v>0.3715146505657587</v>
+      </c>
+      <c r="AA440" t="n">
+        <v>0.007261987504726663</v>
+      </c>
+      <c r="AB440" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC440" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD440" t="n">
+        <v>22934.0</v>
+      </c>
+      <c r="AE440" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="AF440" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB440" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B441" s="3" t="n">
+        <v>44734.41336425926</v>
+      </c>
+      <c r="C441" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F441" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G441" t="n">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H441" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="I441" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K441" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="L441" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="M441" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N441" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O441" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P441" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q441" t="n">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="R441" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S441" t="n">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="T441" t="n">
+        <v>21.421924167817387</v>
+      </c>
+      <c r="U441" t="n">
+        <v>1.0286497492738234</v>
+      </c>
+      <c r="V441" t="n">
+        <v>0.62512837885395</v>
+      </c>
+      <c r="W441" t="n">
+        <v>4400.0</v>
+      </c>
+      <c r="X441" t="n">
+        <v>64.69</v>
+      </c>
+      <c r="Y441" t="n">
+        <v>62.21674885313061</v>
+      </c>
+      <c r="Z441" t="n">
+        <v>-0.8847915106524934</v>
+      </c>
+      <c r="AA441" t="n">
+        <v>-0.006363900230744268</v>
+      </c>
+      <c r="AB441" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC441" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD441" t="n">
+        <v>24715.0</v>
+      </c>
+      <c r="AE441" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="AF441" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB441" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B442" s="3" t="n">
+        <v>44734.41336428241</v>
+      </c>
+      <c r="C442" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F442" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G442" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="H442" t="n">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="I442" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="J442" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L442" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M442" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N442" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O442" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P442" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="Q442" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="R442" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S442" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T442" t="n">
+        <v>27.394528825338355</v>
+      </c>
+      <c r="U442" t="n">
+        <v>1.1049770602692104</v>
+      </c>
+      <c r="V442" t="n">
+        <v>0.8655049734758243</v>
+      </c>
+      <c r="W442" t="n">
+        <v>5100.0</v>
+      </c>
+      <c r="X442" t="n">
+        <v>101.98</v>
+      </c>
+      <c r="Y442" t="n">
+        <v>54.694741297158686</v>
+      </c>
+      <c r="Z442" t="n">
+        <v>-0.3093618049375686</v>
+      </c>
+      <c r="AA442" t="n">
+        <v>-0.001778184462814119</v>
+      </c>
+      <c r="AB442" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC442" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD442" t="n">
+        <v>6425.0</v>
+      </c>
+      <c r="AE442" t="n">
+        <v>471.0</v>
+      </c>
+      <c r="AF442" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB442" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B443" s="3" t="n">
+        <v>44734.413364293985</v>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG443" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH443" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI443" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ443" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL443" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM443" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AN443" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="AO443" t="n">
+        <v>98.7105645784725</v>
+      </c>
+      <c r="AP443" t="n">
+        <v>48.598314093485115</v>
+      </c>
+      <c r="AQ443" t="n">
+        <v>17.342859518776198</v>
+      </c>
+      <c r="AR443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS443" t="n">
+        <v>181366.0</v>
+      </c>
+      <c r="AT443" t="n">
+        <v>734.0</v>
+      </c>
+      <c r="AU443" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AV443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB443" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B444" s="3" t="n">
+        <v>44734.413364328706</v>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU444" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV444" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW444" t="n">
+        <v>19.520857867196067</v>
+      </c>
+      <c r="AX444" t="n">
+        <v>1.7971092E7</v>
+      </c>
+      <c r="AY444" t="n">
+        <v>99.55051369863013</v>
+      </c>
+      <c r="AZ444" t="n">
+        <v>15310.53680647634</v>
+      </c>
+      <c r="BA444" t="n">
+        <v>95.52132421149742</v>
+      </c>
+      <c r="BB444" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B445" s="3" t="n">
+        <v>44734.723366782404</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F445" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G445" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H445" t="n">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I445" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K445" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L445" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M445" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N445" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O445" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P445" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q445" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R445" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S445" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T445" t="n">
+        <v>37.13583463276223</v>
+      </c>
+      <c r="U445" t="n">
+        <v>1.4441427480192872</v>
+      </c>
+      <c r="V445" t="n">
+        <v>0.056696139197427484</v>
+      </c>
+      <c r="W445" t="n">
+        <v>5200.0</v>
+      </c>
+      <c r="X445" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Y445" t="n">
+        <v>97.77112762144863</v>
+      </c>
+      <c r="Z445" t="n">
+        <v>18.548257968360407</v>
+      </c>
+      <c r="AA445" t="n">
+        <v>-99.66856505885133</v>
+      </c>
+      <c r="AB445" t="n">
+        <v>16.473922723137896</v>
+      </c>
+      <c r="AC445" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="AD445" t="n">
+        <v>5950.0</v>
+      </c>
+      <c r="AE445" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF445" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AG445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB445" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B446" s="3" t="n">
+        <v>44734.72336690972</v>
+      </c>
+      <c r="C446" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F446" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G446" t="n">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="H446" t="n">
+        <v>39.473684210526315</v>
+      </c>
+      <c r="I446" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J446" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L446" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M446" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N446" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O446" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P446" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q446" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R446" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S446" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T446" t="n">
+        <v>16.31397452396865</v>
+      </c>
+      <c r="U446" t="n">
+        <v>0.4874389177780564</v>
+      </c>
+      <c r="V446" t="n">
+        <v>0.10860944182480216</v>
+      </c>
+      <c r="W446" t="n">
+        <v>3800.0</v>
+      </c>
+      <c r="X446" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Y446" t="n">
+        <v>97.88247962230122</v>
+      </c>
+      <c r="Z446" t="n">
+        <v>2.469882446224199</v>
+      </c>
+      <c r="AA446" t="n">
+        <v>-99.67966202466593</v>
+      </c>
+      <c r="AB446" t="n">
+        <v>39.52020723578177</v>
+      </c>
+      <c r="AC446" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD446" t="n">
+        <v>22431.0</v>
+      </c>
+      <c r="AE446" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF446" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AG446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB446" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B447" s="3" t="n">
+        <v>44734.72336694445</v>
+      </c>
+      <c r="C447" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F447" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G447" t="n">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H447" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="I447" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K447" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="L447" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="M447" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N447" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O447" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P447" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q447" t="n">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="R447" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S447" t="n">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="T447" t="n">
+        <v>25.102255136779977</v>
+      </c>
+      <c r="U447" t="n">
+        <v>1.213649749273823</v>
+      </c>
+      <c r="V447" t="n">
+        <v>0.15901744330433024</v>
+      </c>
+      <c r="W447" t="n">
+        <v>4800.0</v>
+      </c>
+      <c r="X447" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Y447" t="n">
+        <v>91.24554306272141</v>
+      </c>
+      <c r="Z447" t="n">
+        <v>9.674998639587557</v>
+      </c>
+      <c r="AA447" t="n">
+        <v>-99.64360151961742</v>
+      </c>
+      <c r="AB447" t="n">
+        <v>46.65752348795406</v>
+      </c>
+      <c r="AC447" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD447" t="n">
+        <v>24178.0</v>
+      </c>
+      <c r="AE447" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF447" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AG447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB447" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B448" s="3" t="n">
+        <v>44734.72336696759</v>
+      </c>
+      <c r="C448" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F448" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G448" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="H448" t="n">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="I448" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="J448" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L448" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M448" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N448" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O448" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P448" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="Q448" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="R448" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S448" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T448" t="n">
+        <v>25.626730486327958</v>
+      </c>
+      <c r="U448" t="n">
+        <v>0.8856633120824228</v>
+      </c>
+      <c r="V448" t="n">
+        <v>0.20351584192799294</v>
+      </c>
+      <c r="W448" t="n">
+        <v>6100.0</v>
+      </c>
+      <c r="X448" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Y448" t="n">
+        <v>89.83173911676515</v>
+      </c>
+      <c r="Z448" t="n">
+        <v>19.305556875245486</v>
+      </c>
+      <c r="AA448" t="n">
+        <v>-99.68138421241746</v>
+      </c>
+      <c r="AB448" t="n">
+        <v>64.24200386780471</v>
+      </c>
+      <c r="AC448" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD448" t="n">
+        <v>4806.0</v>
+      </c>
+      <c r="AE448" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF448" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AG448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB448" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B449" s="3" t="n">
+        <v>44734.723366990744</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG449" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH449" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI449" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ449" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL449" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM449" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN449" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO449" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP449" t="n">
+        <v>86.0617558602258</v>
+      </c>
+      <c r="AQ449" t="n">
+        <v>192.52865666866808</v>
+      </c>
+      <c r="AR449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS449" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT449" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU449" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="AV449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB449" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B450" s="3" t="n">
+        <v>44734.72336703704</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG450" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH450" t="inlineStr">
+        <is>
+          <t>holonAgent[1]</t>
+        </is>
+      </c>
+      <c r="AI450" t="inlineStr">
+        <is>
+          <t>WarmteHolon</t>
+        </is>
+      </c>
+      <c r="AJ450" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL450" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM450" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN450" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO450" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP450" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ450" t="n">
+        <v>2.2710166593149568</v>
+      </c>
+      <c r="AR450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS450" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT450" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="AU450" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AV450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB450" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B451" s="3" t="n">
+        <v>44734.72336704861</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU451" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV451" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW451" t="n">
+        <v>0.0645814868050115</v>
+      </c>
+      <c r="AX451" t="n">
+        <v>26875.0</v>
+      </c>
+      <c r="AY451" t="n">
+        <v>98.7012987012987</v>
+      </c>
+      <c r="AZ451" t="n">
+        <v>14341.046963610013</v>
+      </c>
+      <c r="BA451" t="n">
+        <v>0.29071293287196254</v>
+      </c>
+      <c r="BB451" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B452" s="3" t="n">
+        <v>44734.72694371528</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F452" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G452" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H452" t="n">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I452" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K452" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L452" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M452" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N452" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O452" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P452" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R452" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S452" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T452" t="n">
+        <v>29.04095218009563</v>
+      </c>
+      <c r="U452" t="n">
+        <v>1.493009520293959</v>
+      </c>
+      <c r="V452" t="n">
+        <v>0.3256796528691778</v>
+      </c>
+      <c r="W452" t="n">
+        <v>4400.0</v>
+      </c>
+      <c r="X452" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="Y452" t="n">
+        <v>83.9341099113208</v>
+      </c>
+      <c r="Z452" t="n">
+        <v>-15.874338362498957</v>
+      </c>
+      <c r="AA452" t="n">
+        <v>30505.672985683006</v>
+      </c>
+      <c r="AB452" t="n">
+        <v>-14.152457935948277</v>
+      </c>
+      <c r="AC452" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD452" t="n">
+        <v>7169.0</v>
+      </c>
+      <c r="AE452" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="AF452" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB452" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B453" s="3" t="n">
+        <v>44734.72694395833</v>
+      </c>
+      <c r="C453" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F453" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G453" t="n">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="H453" t="n">
+        <v>39.473684210526315</v>
+      </c>
+      <c r="I453" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J453" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L453" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M453" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N453" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O453" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P453" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R453" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S453" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T453" t="n">
+        <v>16.829729040547875</v>
+      </c>
+      <c r="U453" t="n">
+        <v>0.8384555886272758</v>
+      </c>
+      <c r="V453" t="n">
+        <v>0.4014377502163632</v>
+      </c>
+      <c r="W453" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X453" t="n">
+        <v>43.47</v>
+      </c>
+      <c r="Y453" t="n">
+        <v>69.87161137411455</v>
+      </c>
+      <c r="Z453" t="n">
+        <v>-2.27511263528455</v>
+      </c>
+      <c r="AA453" t="n">
+        <v>30946.611147349387</v>
+      </c>
+      <c r="AB453" t="n">
+        <v>-28.616835572895276</v>
+      </c>
+      <c r="AC453" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD453" t="n">
+        <v>22934.0</v>
+      </c>
+      <c r="AE453" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="AF453" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB453" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B454" s="3" t="n">
+        <v>44734.726944027774</v>
+      </c>
+      <c r="C454" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F454" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G454" t="n">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H454" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="I454" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K454" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="L454" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="M454" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N454" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O454" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P454" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q454" t="n">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="R454" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S454" t="n">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="T454" t="n">
+        <v>21.45599946701018</v>
+      </c>
+      <c r="U454" t="n">
+        <v>1.213649749273823</v>
+      </c>
+      <c r="V454" t="n">
+        <v>0.62512837885395</v>
+      </c>
+      <c r="W454" t="n">
+        <v>4400.0</v>
+      </c>
+      <c r="X454" t="n">
+        <v>64.87</v>
+      </c>
+      <c r="Y454" t="n">
+        <v>62.045487146195796</v>
+      </c>
+      <c r="Z454" t="n">
+        <v>-8.975592772290497</v>
+      </c>
+      <c r="AA454" t="n">
+        <v>28105.152471072455</v>
+      </c>
+      <c r="AB454" t="n">
+        <v>-32.00162433846631</v>
+      </c>
+      <c r="AC454" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD454" t="n">
+        <v>24759.0</v>
+      </c>
+      <c r="AE454" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="AF454" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB454" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B455" s="3" t="n">
+        <v>44734.72694408565</v>
+      </c>
+      <c r="C455" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F455" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G455" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="H455" t="n">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="I455" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="J455" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L455" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M455" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N455" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O455" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P455" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="Q455" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="R455" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S455" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T455" t="n">
+        <v>27.393753543049993</v>
+      </c>
+      <c r="U455" t="n">
+        <v>1.1049770602692104</v>
+      </c>
+      <c r="V455" t="n">
+        <v>0.8655049734758243</v>
+      </c>
+      <c r="W455" t="n">
+        <v>5100.0</v>
+      </c>
+      <c r="X455" t="n">
+        <v>101.98</v>
+      </c>
+      <c r="Y455" t="n">
+        <v>54.69848727120477</v>
+      </c>
+      <c r="Z455" t="n">
+        <v>-16.65166374961432</v>
+      </c>
+      <c r="AA455" t="n">
+        <v>31768.36722890151</v>
+      </c>
+      <c r="AB455" t="n">
+        <v>-39.1100653187772</v>
+      </c>
+      <c r="AC455" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD455" t="n">
+        <v>6425.0</v>
+      </c>
+      <c r="AE455" t="n">
+        <v>471.0</v>
+      </c>
+      <c r="AF455" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB455" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B456" s="3" t="n">
+        <v>44734.7269441088</v>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG456" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH456" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI456" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ456" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL456" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM456" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AN456" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="AO456" t="n">
+        <v>98.54232635568135</v>
+      </c>
+      <c r="AP456" t="n">
+        <v>47.21270093999182</v>
+      </c>
+      <c r="AQ456" t="n">
+        <v>15.230814312908429</v>
+      </c>
+      <c r="AR456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS456" t="n">
+        <v>181491.0</v>
+      </c>
+      <c r="AT456" t="n">
+        <v>812.0</v>
+      </c>
+      <c r="AU456" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AV456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB456" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B457" s="3" t="n">
+        <v>44734.726944201386</v>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG457" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH457" t="inlineStr">
+        <is>
+          <t>holonAgent[1]</t>
+        </is>
+      </c>
+      <c r="AI457" t="inlineStr">
+        <is>
+          <t>WarmteHolon</t>
+        </is>
+      </c>
+      <c r="AJ457" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL457" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM457" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="AN457" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="AO457" t="n">
+        <v>38.448057268520735</v>
+      </c>
+      <c r="AP457" t="n">
+        <v>83.89093084790656</v>
+      </c>
+      <c r="AQ457" t="n">
+        <v>5.444184846860899</v>
+      </c>
+      <c r="AR457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS457" t="n">
+        <v>276272.0</v>
+      </c>
+      <c r="AT457" t="n">
+        <v>638.0</v>
+      </c>
+      <c r="AU457" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AV457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB457" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B458" s="3" t="n">
+        <v>44734.72694422454</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU458" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV458" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW458" t="n">
+        <v>19.53031848359122</v>
+      </c>
+      <c r="AX458" t="n">
+        <v>1.1881962E7</v>
+      </c>
+      <c r="AY458" t="n">
+        <v>99.54908675799086</v>
+      </c>
+      <c r="AZ458" t="n">
+        <v>15321.626536900023</v>
+      </c>
+      <c r="BA458" t="n">
+        <v>90.19805768992003</v>
+      </c>
+      <c r="BB458" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B459" s="3" t="n">
+        <v>44734.7508594213</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F459" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G459" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H459" t="n">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I459" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K459" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L459" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M459" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N459" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O459" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P459" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q459" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R459" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S459" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T459" t="n">
+        <v>20.192887192151446</v>
+      </c>
+      <c r="U459" t="n">
+        <v>1.4441427480192872</v>
+      </c>
+      <c r="V459" t="n">
+        <v>0.3256796528691778</v>
+      </c>
+      <c r="W459" t="n">
+        <v>3400.0</v>
+      </c>
+      <c r="X459" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="Y459" t="n">
+        <v>79.76730250169895</v>
+      </c>
+      <c r="Z459" t="n">
+        <v>-21.95933627053238</v>
+      </c>
+      <c r="AA459" t="n">
+        <v>-78.90375323489646</v>
+      </c>
+      <c r="AB459" t="n">
+        <v>-4.964379099300897</v>
+      </c>
+      <c r="AC459" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD459" t="n">
+        <v>6203.0</v>
+      </c>
+      <c r="AE459" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="AF459" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AG459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB459" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B460" s="3" t="n">
+        <v>44734.75085960648</v>
+      </c>
+      <c r="C460" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F460" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G460" t="n">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="H460" t="n">
+        <v>39.473684210526315</v>
+      </c>
+      <c r="I460" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J460" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L460" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M460" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N460" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O460" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P460" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q460" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R460" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S460" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T460" t="n">
+        <v>14.179303307075028</v>
+      </c>
+      <c r="U460" t="n">
+        <v>0.4874389177780564</v>
+      </c>
+      <c r="V460" t="n">
+        <v>0.4014377502163632</v>
+      </c>
+      <c r="W460" t="n">
+        <v>3200.0</v>
+      </c>
+      <c r="X460" t="n">
+        <v>8.29</v>
+      </c>
+      <c r="Y460" t="n">
+        <v>63.141161756317054</v>
+      </c>
+      <c r="Z460" t="n">
+        <v>-14.52564661689669</v>
+      </c>
+      <c r="AA460" t="n">
+        <v>-80.93552871825445</v>
+      </c>
+      <c r="AB460" t="n">
+        <v>-9.632595392369808</v>
+      </c>
+      <c r="AC460" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD460" t="n">
+        <v>22517.0</v>
+      </c>
+      <c r="AE460" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="AF460" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AG460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB460" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B461" s="3" t="n">
+        <v>44734.7508596412</v>
+      </c>
+      <c r="C461" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F461" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G461" t="n">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H461" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="I461" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K461" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="L461" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="M461" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N461" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O461" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P461" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q461" t="n">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="R461" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S461" t="n">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="T461" t="n">
+        <v>18.355661425643127</v>
+      </c>
+      <c r="U461" t="n">
+        <v>1.213649749273823</v>
+      </c>
+      <c r="V461" t="n">
+        <v>0.62512837885395</v>
+      </c>
+      <c r="W461" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="X461" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="Y461" t="n">
+        <v>55.54245232553552</v>
+      </c>
+      <c r="Z461" t="n">
+        <v>-18.774292288510857</v>
+      </c>
+      <c r="AA461" t="n">
+        <v>-83.15422767829936</v>
+      </c>
+      <c r="AB461" t="n">
+        <v>-10.481076255130985</v>
+      </c>
+      <c r="AC461" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD461" t="n">
+        <v>24257.0</v>
+      </c>
+      <c r="AE461" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="AF461" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AG461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB461" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B462" s="3" t="n">
+        <v>44734.75085967593</v>
+      </c>
+      <c r="C462" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F462" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G462" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="H462" t="n">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="I462" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="J462" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L462" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M462" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N462" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O462" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P462" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="Q462" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="R462" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S462" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T462" t="n">
+        <v>23.891456895683064</v>
+      </c>
+      <c r="U462" t="n">
+        <v>0.8856633120824228</v>
+      </c>
+      <c r="V462" t="n">
+        <v>0.8655049734758243</v>
+      </c>
+      <c r="W462" t="n">
+        <v>3500.0</v>
+      </c>
+      <c r="X462" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="Y462" t="n">
+        <v>47.25344747771112</v>
+      </c>
+      <c r="Z462" t="n">
+        <v>-32.1014593362327</v>
+      </c>
+      <c r="AA462" t="n">
+        <v>-84.21715035530629</v>
+      </c>
+      <c r="AB462" t="n">
+        <v>-13.611052453022744</v>
+      </c>
+      <c r="AC462" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD462" t="n">
+        <v>5093.0</v>
+      </c>
+      <c r="AE462" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="AF462" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AG462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB462" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B463" s="3" t="n">
+        <v>44734.750859699074</v>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG463" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH463" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI463" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ463" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL463" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM463" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AN463" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="AO463" t="n">
+        <v>77.79844536085378</v>
+      </c>
+      <c r="AP463" t="n">
+        <v>51.318569803669526</v>
+      </c>
+      <c r="AQ463" t="n">
+        <v>15.910025157410876</v>
+      </c>
+      <c r="AR463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS463" t="n">
+        <v>45362.0</v>
+      </c>
+      <c r="AT463" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="AU463" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AV463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB463" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B464" s="3" t="n">
+        <v>44734.75085975695</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG464" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH464" t="inlineStr">
+        <is>
+          <t>holonAgent[1]</t>
+        </is>
+      </c>
+      <c r="AI464" t="inlineStr">
+        <is>
+          <t>WarmteHolon</t>
+        </is>
+      </c>
+      <c r="AJ464" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL464" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM464" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="AN464" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="AO464" t="n">
+        <v>25.184961227222587</v>
+      </c>
+      <c r="AP464" t="n">
+        <v>65.25060247705919</v>
+      </c>
+      <c r="AQ464" t="n">
+        <v>22.88087905070558</v>
+      </c>
+      <c r="AR464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS464" t="n">
+        <v>69046.0</v>
+      </c>
+      <c r="AT464" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AU464" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AV464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB464" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B465" s="3" t="n">
+        <v>44734.750859768516</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU465" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV465" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW465" t="n">
+        <v>3.5165084798851205</v>
+      </c>
+      <c r="AX465" t="n">
+        <v>2942884.0</v>
+      </c>
+      <c r="AY465" t="n">
+        <v>99.94012527634489</v>
+      </c>
+      <c r="AZ465" t="n">
+        <v>14517.643654449761</v>
+      </c>
+      <c r="BA465" t="n">
+        <v>21.640947510742134</v>
+      </c>
+      <c r="BB465" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B466" s="3" t="n">
+        <v>44734.76979633102</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F466" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G466" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H466" t="n">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I466" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J466" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K466" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L466" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M466" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N466" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O466" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P466" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q466" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R466" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S466" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T466" t="n">
+        <v>29.04095218009563</v>
+      </c>
+      <c r="U466" t="n">
+        <v>1.493009520293959</v>
+      </c>
+      <c r="V466" t="n">
+        <v>0.3256796528691778</v>
+      </c>
+      <c r="W466" t="n">
+        <v>4400.0</v>
+      </c>
+      <c r="X466" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="Y466" t="n">
+        <v>83.9341099113208</v>
+      </c>
+      <c r="Z466" t="n">
+        <v>28.66277662206042</v>
+      </c>
+      <c r="AA466" t="n">
+        <v>373.8263592966979</v>
+      </c>
+      <c r="AB466" t="n">
+        <v>5.2237035463661385</v>
+      </c>
+      <c r="AC466" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD466" t="n">
+        <v>7169.0</v>
+      </c>
+      <c r="AE466" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="AF466" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB466" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B467" s="3" t="n">
+        <v>44734.769796643515</v>
+      </c>
+      <c r="C467" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F467" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G467" t="n">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="H467" t="n">
+        <v>39.473684210526315</v>
+      </c>
+      <c r="I467" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J467" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K467" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L467" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M467" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N467" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O467" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P467" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q467" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R467" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S467" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T467" t="n">
+        <v>16.829729040547875</v>
+      </c>
+      <c r="U467" t="n">
+        <v>0.8384555886272758</v>
+      </c>
+      <c r="V467" t="n">
+        <v>0.4014377502163632</v>
+      </c>
+      <c r="W467" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X467" t="n">
+        <v>43.02</v>
+      </c>
+      <c r="Y467" t="n">
+        <v>69.87161137411455</v>
+      </c>
+      <c r="Z467" t="n">
+        <v>15.449585724465521</v>
+      </c>
+      <c r="AA467" t="n">
+        <v>418.87426017669543</v>
+      </c>
+      <c r="AB467" t="n">
+        <v>10.659369309314519</v>
+      </c>
+      <c r="AC467" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD467" t="n">
+        <v>22926.0</v>
+      </c>
+      <c r="AE467" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="AF467" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB467" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B468" s="3" t="n">
+        <v>44734.76979675926</v>
+      </c>
+      <c r="C468" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F468" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G468" t="n">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H468" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="I468" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J468" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K468" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="L468" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="M468" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N468" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O468" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P468" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q468" t="n">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="R468" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S468" t="n">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="T468" t="n">
+        <v>21.45599946701018</v>
+      </c>
+      <c r="U468" t="n">
+        <v>1.213649749273823</v>
+      </c>
+      <c r="V468" t="n">
+        <v>0.62512837885395</v>
+      </c>
+      <c r="W468" t="n">
+        <v>4400.0</v>
+      </c>
+      <c r="X468" t="n">
+        <v>64.42</v>
+      </c>
+      <c r="Y468" t="n">
+        <v>62.045487146195796</v>
+      </c>
+      <c r="Z468" t="n">
+        <v>20.833682507049062</v>
+      </c>
+      <c r="AA468" t="n">
+        <v>489.39863902859605</v>
+      </c>
+      <c r="AB468" t="n">
+        <v>11.70822415716513</v>
+      </c>
+      <c r="AC468" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD468" t="n">
+        <v>24751.0</v>
+      </c>
+      <c r="AE468" t="n">
+        <v>327.0</v>
+      </c>
+      <c r="AF468" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB468" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B469" s="3" t="n">
+        <v>44734.76979690972</v>
+      </c>
+      <c r="C469" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F469" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G469" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="H469" t="n">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="I469" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="J469" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K469" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L469" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M469" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N469" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O469" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P469" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="Q469" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="R469" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S469" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T469" t="n">
+        <v>27.393753543049993</v>
+      </c>
+      <c r="U469" t="n">
+        <v>1.1049770602692104</v>
+      </c>
+      <c r="V469" t="n">
+        <v>0.8655049734758243</v>
+      </c>
+      <c r="W469" t="n">
+        <v>5100.0</v>
+      </c>
+      <c r="X469" t="n">
+        <v>101.98</v>
+      </c>
+      <c r="Y469" t="n">
+        <v>54.69848727120477</v>
+      </c>
+      <c r="Z469" t="n">
+        <v>45.26424317924362</v>
+      </c>
+      <c r="AA469" t="n">
+        <v>533.4085411955579</v>
+      </c>
+      <c r="AB469" t="n">
+        <v>15.755548411584964</v>
+      </c>
+      <c r="AC469" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD469" t="n">
+        <v>6425.0</v>
+      </c>
+      <c r="AE469" t="n">
+        <v>471.0</v>
+      </c>
+      <c r="AF469" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AG469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB469" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B470" s="3" t="n">
+        <v>44734.769796967594</v>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG470" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH470" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI470" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ470" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL470" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM470" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AN470" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="AO470" t="n">
+        <v>98.54232635568135</v>
+      </c>
+      <c r="AP470" t="n">
+        <v>47.21270093999182</v>
+      </c>
+      <c r="AQ470" t="n">
+        <v>14.501270736163821</v>
+      </c>
+      <c r="AR470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS470" t="n">
+        <v>181491.0</v>
+      </c>
+      <c r="AT470" t="n">
+        <v>853.0</v>
+      </c>
+      <c r="AU470" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AV470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB470" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B471" s="3" t="n">
+        <v>44734.76979730324</v>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG471" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH471" t="inlineStr">
+        <is>
+          <t>holonAgent[1]</t>
+        </is>
+      </c>
+      <c r="AI471" t="inlineStr">
+        <is>
+          <t>WarmteHolon</t>
+        </is>
+      </c>
+      <c r="AJ471" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL471" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM471" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="AN471" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="AO471" t="n">
+        <v>38.448057268520735</v>
+      </c>
+      <c r="AP471" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AQ471" t="n">
+        <v>22.742757651057747</v>
+      </c>
+      <c r="AR471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS471" t="n">
+        <v>276272.0</v>
+      </c>
+      <c r="AT471" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="AU471" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AV471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB471" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B472" s="3" t="n">
+        <v>44734.76979733796</v>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU472" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV472" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW472" t="n">
+        <v>19.47024122523908</v>
+      </c>
+      <c r="AX472" t="n">
+        <v>1.5171839E7</v>
+      </c>
+      <c r="AY472" t="n">
+        <v>99.54908675799086</v>
+      </c>
+      <c r="AZ472" t="n">
+        <v>15317.741522185108</v>
+      </c>
+      <c r="BA472" t="n">
+        <v>92.6124484016179</v>
+      </c>
+      <c r="BB472" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Output/export_kpis.xlsx
+++ b/Output/export_kpis.xlsx
@@ -86738,6 +86738,6500 @@
         <v>-99.0</v>
       </c>
     </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B385" s="3" t="n">
+        <v>44824.679168877316</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F385" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G385" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H385" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I385" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K385" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L385" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M385" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O385" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P385" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T385" t="n">
+        <v>30.51570715030555</v>
+      </c>
+      <c r="U385" t="n">
+        <v>1.6563013558301172</v>
+      </c>
+      <c r="V385" t="n">
+        <v>0.32385804060187795</v>
+      </c>
+      <c r="W385" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="X385" t="n">
+        <v>79.52</v>
+      </c>
+      <c r="Y385" t="n">
+        <v>84.54103499944064</v>
+      </c>
+      <c r="Z385" t="n">
+        <v>0.1788562249095978</v>
+      </c>
+      <c r="AA385" t="n">
+        <v>0.003161553565572011</v>
+      </c>
+      <c r="AB385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC385" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD385" t="n">
+        <v>7259.0</v>
+      </c>
+      <c r="AE385" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="AF385" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB385" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B386" s="3" t="n">
+        <v>44824.67916898148</v>
+      </c>
+      <c r="C386" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F386" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G386" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H386" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I386" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J386" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O386" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S386" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T386" t="n">
+        <v>25.199301139762454</v>
+      </c>
+      <c r="U386" t="n">
+        <v>0.9646489351150732</v>
+      </c>
+      <c r="V386" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W386" t="n">
+        <v>4900.0</v>
+      </c>
+      <c r="X386" t="n">
+        <v>83.05</v>
+      </c>
+      <c r="Y386" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z386" t="n">
+        <v>0.3511406656565186</v>
+      </c>
+      <c r="AA386" t="n">
+        <v>-0.004376382420996226</v>
+      </c>
+      <c r="AB386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC386" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD386" t="n">
+        <v>23094.0</v>
+      </c>
+      <c r="AE386" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="AF386" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AG386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB386" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B387" s="3" t="n">
+        <v>44824.67916900463</v>
+      </c>
+      <c r="C387" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F387" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G387" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H387" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K387" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L387" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M387" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O387" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P387" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T387" t="n">
+        <v>33.495949185477755</v>
+      </c>
+      <c r="U387" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V387" t="n">
+        <v>1.4137189456117336</v>
+      </c>
+      <c r="W387" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X387" t="n">
+        <v>60.92</v>
+      </c>
+      <c r="Y387" t="n">
+        <v>41.86302765360449</v>
+      </c>
+      <c r="Z387" t="n">
+        <v>-1.0171231333000268</v>
+      </c>
+      <c r="AA387" t="n">
+        <v>-6.539806694973351E-4</v>
+      </c>
+      <c r="AB387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC387" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD387" t="n">
+        <v>6608.0</v>
+      </c>
+      <c r="AE387" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AF387" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AG387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB387" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B388" s="3" t="n">
+        <v>44824.679169027775</v>
+      </c>
+      <c r="C388" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F388" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G388" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H388" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I388" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J388" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O388" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P388" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T388" t="n">
+        <v>26.83631878503719</v>
+      </c>
+      <c r="U388" t="n">
+        <v>1.1170052414094649</v>
+      </c>
+      <c r="V388" t="n">
+        <v>1.1856447013973996</v>
+      </c>
+      <c r="W388" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X388" t="n">
+        <v>103.55</v>
+      </c>
+      <c r="Y388" t="n">
+        <v>45.77205404089219</v>
+      </c>
+      <c r="Z388" t="n">
+        <v>-0.6240685147720089</v>
+      </c>
+      <c r="AA388" t="n">
+        <v>8.983337721179853E-4</v>
+      </c>
+      <c r="AB388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC388" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD388" t="n">
+        <v>6026.0</v>
+      </c>
+      <c r="AE388" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="AF388" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB388" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B389" s="3" t="n">
+        <v>44824.67916903935</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG389" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH389" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI389" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ389" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL389" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM389" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN389" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO389" t="n">
+        <v>122.52460981160796</v>
+      </c>
+      <c r="AP389" t="n">
+        <v>27.149351480758565</v>
+      </c>
+      <c r="AQ389" t="n">
+        <v>29.193350849988846</v>
+      </c>
+      <c r="AR389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS389" t="n">
+        <v>95634.0</v>
+      </c>
+      <c r="AT389" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AU389" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AV389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB389" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B390" s="3" t="n">
+        <v>44824.67916907407</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU390" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV390" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW390" t="n">
+        <v>21.80295045327562</v>
+      </c>
+      <c r="AX390" t="n">
+        <v>46467.0</v>
+      </c>
+      <c r="AY390" t="n">
+        <v>99.18093607305936</v>
+      </c>
+      <c r="AZ390" t="n">
+        <v>10746.825129134499</v>
+      </c>
+      <c r="BA390" t="n">
+        <v>97.00387043595131</v>
+      </c>
+      <c r="BB390" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B391" s="3" t="n">
+        <v>44824.689531909724</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F391" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G391" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H391" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I391" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K391" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L391" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M391" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O391" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P391" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T391" t="n">
+        <v>30.51570715030555</v>
+      </c>
+      <c r="U391" t="n">
+        <v>1.6563013558301172</v>
+      </c>
+      <c r="V391" t="n">
+        <v>0.32385804060187795</v>
+      </c>
+      <c r="W391" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="X391" t="n">
+        <v>79.52</v>
+      </c>
+      <c r="Y391" t="n">
+        <v>84.54103499944064</v>
+      </c>
+      <c r="Z391" t="n">
+        <v>0.1788562249095978</v>
+      </c>
+      <c r="AA391" t="n">
+        <v>0.003161553565572011</v>
+      </c>
+      <c r="AB391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC391" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD391" t="n">
+        <v>7259.0</v>
+      </c>
+      <c r="AE391" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="AF391" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB391" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B392" s="3" t="n">
+        <v>44824.68953201389</v>
+      </c>
+      <c r="C392" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F392" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G392" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H392" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I392" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J392" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O392" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S392" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T392" t="n">
+        <v>25.199301139762454</v>
+      </c>
+      <c r="U392" t="n">
+        <v>0.9646489351150732</v>
+      </c>
+      <c r="V392" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W392" t="n">
+        <v>4900.0</v>
+      </c>
+      <c r="X392" t="n">
+        <v>83.05</v>
+      </c>
+      <c r="Y392" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z392" t="n">
+        <v>0.3511406656565186</v>
+      </c>
+      <c r="AA392" t="n">
+        <v>-0.004376382420996226</v>
+      </c>
+      <c r="AB392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC392" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD392" t="n">
+        <v>23094.0</v>
+      </c>
+      <c r="AE392" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="AF392" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AG392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB392" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B393" s="3" t="n">
+        <v>44824.68953203704</v>
+      </c>
+      <c r="C393" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F393" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G393" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H393" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K393" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L393" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M393" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N393" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O393" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P393" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R393" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S393" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T393" t="n">
+        <v>33.495949185477755</v>
+      </c>
+      <c r="U393" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V393" t="n">
+        <v>1.4137189456117336</v>
+      </c>
+      <c r="W393" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X393" t="n">
+        <v>60.92</v>
+      </c>
+      <c r="Y393" t="n">
+        <v>41.86302765360449</v>
+      </c>
+      <c r="Z393" t="n">
+        <v>-1.0171231333000268</v>
+      </c>
+      <c r="AA393" t="n">
+        <v>-6.539806694973351E-4</v>
+      </c>
+      <c r="AB393" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC393" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD393" t="n">
+        <v>6608.0</v>
+      </c>
+      <c r="AE393" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AF393" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AG393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB393" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B394" s="3" t="n">
+        <v>44824.68953207176</v>
+      </c>
+      <c r="C394" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F394" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G394" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H394" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I394" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J394" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O394" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P394" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T394" t="n">
+        <v>26.83631878503719</v>
+      </c>
+      <c r="U394" t="n">
+        <v>1.1170052414094649</v>
+      </c>
+      <c r="V394" t="n">
+        <v>1.1856447013973996</v>
+      </c>
+      <c r="W394" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X394" t="n">
+        <v>103.55</v>
+      </c>
+      <c r="Y394" t="n">
+        <v>45.77205404089219</v>
+      </c>
+      <c r="Z394" t="n">
+        <v>-0.6240685147720089</v>
+      </c>
+      <c r="AA394" t="n">
+        <v>8.983337721179853E-4</v>
+      </c>
+      <c r="AB394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC394" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD394" t="n">
+        <v>6026.0</v>
+      </c>
+      <c r="AE394" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="AF394" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB394" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B395" s="3" t="n">
+        <v>44824.689532083336</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG395" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH395" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI395" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ395" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL395" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM395" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN395" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO395" t="n">
+        <v>122.52460981160796</v>
+      </c>
+      <c r="AP395" t="n">
+        <v>27.149351480758565</v>
+      </c>
+      <c r="AQ395" t="n">
+        <v>29.193350849988846</v>
+      </c>
+      <c r="AR395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS395" t="n">
+        <v>95634.0</v>
+      </c>
+      <c r="AT395" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AU395" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AV395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB395" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B396" s="3" t="n">
+        <v>44824.68953211806</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU396" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV396" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW396" t="n">
+        <v>21.80295045327562</v>
+      </c>
+      <c r="AX396" t="n">
+        <v>46467.0</v>
+      </c>
+      <c r="AY396" t="n">
+        <v>99.18093607305936</v>
+      </c>
+      <c r="AZ396" t="n">
+        <v>10746.825129134499</v>
+      </c>
+      <c r="BA396" t="n">
+        <v>97.00387043595131</v>
+      </c>
+      <c r="BB396" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B397" s="3" t="n">
+        <v>44824.715129571756</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F397" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G397" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H397" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I397" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K397" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L397" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M397" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O397" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P397" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T397" t="n">
+        <v>30.51570715030555</v>
+      </c>
+      <c r="U397" t="n">
+        <v>1.6563013558301172</v>
+      </c>
+      <c r="V397" t="n">
+        <v>0.32385804060187795</v>
+      </c>
+      <c r="W397" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="X397" t="n">
+        <v>79.52</v>
+      </c>
+      <c r="Y397" t="n">
+        <v>84.54103499944064</v>
+      </c>
+      <c r="Z397" t="n">
+        <v>0.1788562249095978</v>
+      </c>
+      <c r="AA397" t="n">
+        <v>0.003161553565572011</v>
+      </c>
+      <c r="AB397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC397" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD397" t="n">
+        <v>7259.0</v>
+      </c>
+      <c r="AE397" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="AF397" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB397" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B398" s="3" t="n">
+        <v>44824.71512966435</v>
+      </c>
+      <c r="C398" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F398" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G398" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H398" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I398" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J398" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O398" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S398" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T398" t="n">
+        <v>25.199301139762454</v>
+      </c>
+      <c r="U398" t="n">
+        <v>0.9646489351150732</v>
+      </c>
+      <c r="V398" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W398" t="n">
+        <v>4900.0</v>
+      </c>
+      <c r="X398" t="n">
+        <v>83.05</v>
+      </c>
+      <c r="Y398" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z398" t="n">
+        <v>0.3511406656565186</v>
+      </c>
+      <c r="AA398" t="n">
+        <v>-0.004376382420996226</v>
+      </c>
+      <c r="AB398" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC398" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD398" t="n">
+        <v>23094.0</v>
+      </c>
+      <c r="AE398" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="AF398" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AG398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB398" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B399" s="3" t="n">
+        <v>44824.7151296875</v>
+      </c>
+      <c r="C399" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F399" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G399" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H399" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K399" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L399" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M399" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O399" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P399" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T399" t="n">
+        <v>33.495949185477755</v>
+      </c>
+      <c r="U399" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V399" t="n">
+        <v>1.4137189456117336</v>
+      </c>
+      <c r="W399" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X399" t="n">
+        <v>60.92</v>
+      </c>
+      <c r="Y399" t="n">
+        <v>41.86302765360449</v>
+      </c>
+      <c r="Z399" t="n">
+        <v>-1.0171231333000268</v>
+      </c>
+      <c r="AA399" t="n">
+        <v>-6.539806694973351E-4</v>
+      </c>
+      <c r="AB399" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC399" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD399" t="n">
+        <v>6608.0</v>
+      </c>
+      <c r="AE399" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AF399" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AG399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB399" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B400" s="3" t="n">
+        <v>44824.71512971065</v>
+      </c>
+      <c r="C400" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F400" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G400" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H400" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I400" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J400" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O400" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P400" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T400" t="n">
+        <v>26.83631878503719</v>
+      </c>
+      <c r="U400" t="n">
+        <v>1.1170052414094649</v>
+      </c>
+      <c r="V400" t="n">
+        <v>1.1856447013973996</v>
+      </c>
+      <c r="W400" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X400" t="n">
+        <v>103.55</v>
+      </c>
+      <c r="Y400" t="n">
+        <v>45.77205404089219</v>
+      </c>
+      <c r="Z400" t="n">
+        <v>-0.6240685147720089</v>
+      </c>
+      <c r="AA400" t="n">
+        <v>8.983337721179853E-4</v>
+      </c>
+      <c r="AB400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC400" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD400" t="n">
+        <v>6026.0</v>
+      </c>
+      <c r="AE400" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="AF400" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB400" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B401" s="3" t="n">
+        <v>44824.71512972222</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG401" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH401" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI401" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ401" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL401" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM401" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN401" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO401" t="n">
+        <v>122.52460981160796</v>
+      </c>
+      <c r="AP401" t="n">
+        <v>27.149351480758565</v>
+      </c>
+      <c r="AQ401" t="n">
+        <v>29.193350849988846</v>
+      </c>
+      <c r="AR401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS401" t="n">
+        <v>95634.0</v>
+      </c>
+      <c r="AT401" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AU401" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AV401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB401" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B402" s="3" t="n">
+        <v>44824.71512975694</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU402" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV402" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW402" t="n">
+        <v>21.80295045327562</v>
+      </c>
+      <c r="AX402" t="n">
+        <v>46467.0</v>
+      </c>
+      <c r="AY402" t="n">
+        <v>99.18093607305936</v>
+      </c>
+      <c r="AZ402" t="n">
+        <v>10746.825129134499</v>
+      </c>
+      <c r="BA402" t="n">
+        <v>97.00387043595131</v>
+      </c>
+      <c r="BB402" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B403" s="3" t="n">
+        <v>44824.720098136575</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F403" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G403" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H403" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I403" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K403" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L403" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M403" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O403" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P403" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T403" t="n">
+        <v>30.51570715030555</v>
+      </c>
+      <c r="U403" t="n">
+        <v>1.6563013558301172</v>
+      </c>
+      <c r="V403" t="n">
+        <v>0.32385804060187795</v>
+      </c>
+      <c r="W403" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="X403" t="n">
+        <v>79.52</v>
+      </c>
+      <c r="Y403" t="n">
+        <v>84.54103499944064</v>
+      </c>
+      <c r="Z403" t="n">
+        <v>0.1788562249095978</v>
+      </c>
+      <c r="AA403" t="n">
+        <v>0.003161553565572011</v>
+      </c>
+      <c r="AB403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC403" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD403" t="n">
+        <v>7259.0</v>
+      </c>
+      <c r="AE403" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="AF403" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB403" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B404" s="3" t="n">
+        <v>44824.72009821759</v>
+      </c>
+      <c r="C404" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F404" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G404" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H404" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I404" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J404" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O404" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S404" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T404" t="n">
+        <v>25.199301139762454</v>
+      </c>
+      <c r="U404" t="n">
+        <v>0.9646489351150732</v>
+      </c>
+      <c r="V404" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W404" t="n">
+        <v>4900.0</v>
+      </c>
+      <c r="X404" t="n">
+        <v>83.05</v>
+      </c>
+      <c r="Y404" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z404" t="n">
+        <v>0.3511406656565186</v>
+      </c>
+      <c r="AA404" t="n">
+        <v>-0.004376382420996226</v>
+      </c>
+      <c r="AB404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC404" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD404" t="n">
+        <v>23094.0</v>
+      </c>
+      <c r="AE404" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="AF404" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AG404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB404" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B405" s="3" t="n">
+        <v>44824.72009824074</v>
+      </c>
+      <c r="C405" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F405" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G405" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H405" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K405" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L405" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M405" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O405" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P405" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T405" t="n">
+        <v>33.495949185477755</v>
+      </c>
+      <c r="U405" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V405" t="n">
+        <v>1.4137189456117336</v>
+      </c>
+      <c r="W405" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X405" t="n">
+        <v>60.92</v>
+      </c>
+      <c r="Y405" t="n">
+        <v>41.86302765360449</v>
+      </c>
+      <c r="Z405" t="n">
+        <v>-1.0171231333000268</v>
+      </c>
+      <c r="AA405" t="n">
+        <v>-6.539806694973351E-4</v>
+      </c>
+      <c r="AB405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC405" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD405" t="n">
+        <v>6608.0</v>
+      </c>
+      <c r="AE405" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AF405" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AG405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB405" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B406" s="3" t="n">
+        <v>44824.72009826389</v>
+      </c>
+      <c r="C406" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F406" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G406" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H406" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I406" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J406" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O406" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P406" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T406" t="n">
+        <v>26.83631878503719</v>
+      </c>
+      <c r="U406" t="n">
+        <v>1.1170052414094649</v>
+      </c>
+      <c r="V406" t="n">
+        <v>1.1856447013973996</v>
+      </c>
+      <c r="W406" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X406" t="n">
+        <v>103.55</v>
+      </c>
+      <c r="Y406" t="n">
+        <v>45.77205404089219</v>
+      </c>
+      <c r="Z406" t="n">
+        <v>-0.6240685147720089</v>
+      </c>
+      <c r="AA406" t="n">
+        <v>8.983337721179853E-4</v>
+      </c>
+      <c r="AB406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC406" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD406" t="n">
+        <v>6026.0</v>
+      </c>
+      <c r="AE406" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="AF406" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB406" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B407" s="3" t="n">
+        <v>44824.720098275466</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG407" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH407" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI407" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ407" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL407" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM407" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN407" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO407" t="n">
+        <v>122.52460981160796</v>
+      </c>
+      <c r="AP407" t="n">
+        <v>27.149351480758565</v>
+      </c>
+      <c r="AQ407" t="n">
+        <v>29.193350849988846</v>
+      </c>
+      <c r="AR407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS407" t="n">
+        <v>95634.0</v>
+      </c>
+      <c r="AT407" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AU407" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AV407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB407" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B408" s="3" t="n">
+        <v>44824.72009833333</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU408" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV408" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="AW408" t="n">
+        <v>21.80295045327562</v>
+      </c>
+      <c r="AX408" t="n">
+        <v>46467.0</v>
+      </c>
+      <c r="AY408" t="n">
+        <v>99.18093607305936</v>
+      </c>
+      <c r="AZ408" t="n">
+        <v>10746.825129134499</v>
+      </c>
+      <c r="BA408" t="n">
+        <v>97.00387043595131</v>
+      </c>
+      <c r="BB408" t="n">
+        <v>-99.0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B409" s="3" t="n">
+        <v>44824.72427064815</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>pop_buurten[0]</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>B. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F409" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G409" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H409" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="I409" t="n">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K409" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L409" t="n">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="M409" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="N409" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O409" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P409" t="n">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="R409" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S409" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T409" t="n">
+        <v>30.51570715030555</v>
+      </c>
+      <c r="U409" t="n">
+        <v>1.6563013558301172</v>
+      </c>
+      <c r="V409" t="n">
+        <v>0.32385804060187795</v>
+      </c>
+      <c r="W409" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="X409" t="n">
+        <v>79.52</v>
+      </c>
+      <c r="Y409" t="n">
+        <v>84.54103499944064</v>
+      </c>
+      <c r="Z409" t="n">
+        <v>0.1788562249095978</v>
+      </c>
+      <c r="AA409" t="n">
+        <v>0.003161553565572011</v>
+      </c>
+      <c r="AB409" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC409" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AD409" t="n">
+        <v>7259.0</v>
+      </c>
+      <c r="AE409" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="AF409" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AG409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB409" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B410" s="3" t="n">
+        <v>44824.72427076389</v>
+      </c>
+      <c r="C410" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>pop_buurten[1]</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>C. Villawijk</t>
+        </is>
+      </c>
+      <c r="F410" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G410" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="H410" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I410" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J410" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O410" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S410" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="T410" t="n">
+        <v>25.199301139762454</v>
+      </c>
+      <c r="U410" t="n">
+        <v>0.9646489351150732</v>
+      </c>
+      <c r="V410" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="W410" t="n">
+        <v>4900.0</v>
+      </c>
+      <c r="X410" t="n">
+        <v>83.05</v>
+      </c>
+      <c r="Y410" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Z410" t="n">
+        <v>0.3511406656565186</v>
+      </c>
+      <c r="AA410" t="n">
+        <v>-0.004376382420996226</v>
+      </c>
+      <c r="AB410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC410" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD410" t="n">
+        <v>23094.0</v>
+      </c>
+      <c r="AE410" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="AF410" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AG410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB410" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B411" s="3" t="n">
+        <v>44824.72427079861</v>
+      </c>
+      <c r="C411" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>pop_buurten[2]</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>D. Rijtjeswoningen</t>
+        </is>
+      </c>
+      <c r="F411" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G411" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H411" t="n">
+        <v>16.216216216216218</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K411" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L411" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="M411" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N411" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O411" t="n">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P411" t="n">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="R411" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S411" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T411" t="n">
+        <v>33.495949185477755</v>
+      </c>
+      <c r="U411" t="n">
+        <v>1.429669847391185</v>
+      </c>
+      <c r="V411" t="n">
+        <v>1.4137189456117336</v>
+      </c>
+      <c r="W411" t="n">
+        <v>3700.0</v>
+      </c>
+      <c r="X411" t="n">
+        <v>60.92</v>
+      </c>
+      <c r="Y411" t="n">
+        <v>41.86302765360449</v>
+      </c>
+      <c r="Z411" t="n">
+        <v>-1.0171231333000268</v>
+      </c>
+      <c r="AA411" t="n">
+        <v>-6.539806694973351E-4</v>
+      </c>
+      <c r="AB411" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC411" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AD411" t="n">
+        <v>6608.0</v>
+      </c>
+      <c r="AE411" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AF411" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AG411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB411" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B412" s="3" t="n">
+        <v>44824.72427082176</v>
+      </c>
+      <c r="C412" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>pop_buurten[3]</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>A. Villawijk</t>
+        </is>
+      </c>
+      <c r="F412" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G412" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="H412" t="n">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I412" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="J412" t="n">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O412" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P412" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="R412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T412" t="n">
+        <v>26.83631878503719</v>
+      </c>
+      <c r="U412" t="n">
+        <v>1.1170052414094649</v>
+      </c>
+      <c r="V412" t="n">
+        <v>1.1856447013973996</v>
+      </c>
+      <c r="W412" t="n">
+        <v>5400.0</v>
+      </c>
+      <c r="X412" t="n">
+        <v>103.55</v>
+      </c>
+      <c r="Y412" t="n">
+        <v>45.77205404089219</v>
+      </c>
+      <c r="Z412" t="n">
+        <v>-0.6240685147720089</v>
+      </c>
+      <c r="AA412" t="n">
+        <v>8.983337721179853E-4</v>
+      </c>
+      <c r="AB412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC412" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AD412" t="n">
+        <v>6026.0</v>
+      </c>
+      <c r="AE412" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="AF412" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AH412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AK412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AM412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AP412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AQ412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AR412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AT412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AU412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AV412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB412" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B413" s="3" t="n">
+        <v>44824.724270844905</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG413" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH413" t="inlineStr">
+        <is>
+          <t>holonAgent[0]</t>
+        </is>
+      </c>
+      <c r="AI413" t="inlineStr">
+        <is>
+          <t>WindHolon</t>
+        </is>
+      </c>
+      <c r="AJ413" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL413" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM413" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AN413" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AO413" t="n">
+        <v>122.52460981160796</v>
+      </c>
+      <c r="AP413" t="n">
+        <v>27.149351480758565</v>
+      </c>
+      <c r="AQ413" t="n">
+        <v>29.193350849988846</v>
+      </c>
+      <c r="AR413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS413" t="n">
+        <v>95634.0</v>
+      </c>
+      <c r="AT413" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AU413" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AV413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AW413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AX413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AY413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AZ413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BA413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="BB413" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
